--- a/tumlknexpectimax/excel_data/input_data_business_munich_rokkas.xlsx
+++ b/tumlknexpectimax/excel_data/input_data_business_munich_rokkas.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmadzay\LRZ Sync+Share\PycharmProjects\mt_branch_new_code\tumlknexpectimax\tumlknexpectimax\excel_data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="648" windowWidth="13680" windowHeight="11256" tabRatio="847" firstSheet="10" activeTab="17"/>
+    <workbookView xWindow="480" yWindow="645" windowWidth="13680" windowHeight="11250" tabRatio="847" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CAPEX" sheetId="1" r:id="rId1"/>
@@ -31,7 +26,7 @@
     <sheet name="FTTB_Hybridpon_100" sheetId="19" r:id="rId17"/>
     <sheet name="MIG_MATRIX" sheetId="11" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -41,7 +36,7 @@
     <author>Patri, Sai Kireet</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0">
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -66,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="0" shapeId="0">
+    <comment ref="C3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -91,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0">
+    <comment ref="H4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -117,7 +112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H5" authorId="0" shapeId="0">
+    <comment ref="H5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -141,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H6" authorId="0" shapeId="0">
+    <comment ref="H6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -166,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0" shapeId="0">
+    <comment ref="H7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -191,7 +186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="0" shapeId="0">
+    <comment ref="C8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -547,7 +542,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000000000%"/>
   </numFmts>
@@ -772,9 +767,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -801,6 +796,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -920,7 +916,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F92B-4BDB-8C8A-80B4841F7958}"/>
             </c:ext>
@@ -995,48 +991,48 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>37680.456378238385</c:v>
+                  <c:v>5652.0684567357575</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25629.179773352305</c:v>
+                  <c:v>3844.3769660028456</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29224.246344356696</c:v>
+                  <c:v>4383.6369516535042</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29224.246344356696</c:v>
+                  <c:v>4383.6369516535042</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25629.179773352305</c:v>
+                  <c:v>3844.3769660028456</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37680.456378238385</c:v>
+                  <c:v>5652.0684567357575</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25629.179773352305</c:v>
+                  <c:v>3844.3769660028456</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29224.246344356696</c:v>
+                  <c:v>4383.6369516535042</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25188.456740568523</c:v>
+                  <c:v>3778.2685110852781</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24423.340606407441</c:v>
+                  <c:v>3663.5010909611156</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50174.540606407441</c:v>
+                  <c:v>7526.1810909611158</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>25188.456740568523</c:v>
+                  <c:v>3778.2685110852781</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>24423.340606407441</c:v>
+                  <c:v>3663.5010909611156</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F92B-4BDB-8C8A-80B4841F7958}"/>
             </c:ext>
@@ -1152,7 +1148,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-F92B-4BDB-8C8A-80B4841F7958}"/>
             </c:ext>
@@ -1268,7 +1264,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-F92B-4BDB-8C8A-80B4841F7958}"/>
             </c:ext>
@@ -1284,11 +1280,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="41646720"/>
-        <c:axId val="41661184"/>
+        <c:axId val="164542976"/>
+        <c:axId val="167624000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="41646720"/>
+        <c:axId val="164542976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1310,13 +1306,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41661184"/>
+        <c:crossAx val="167624000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1324,7 +1321,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="41661184"/>
+        <c:axId val="167624000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1347,19 +1344,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41646720"/>
+        <c:crossAx val="164542976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1375,9 +1374,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1404,6 +1403,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1485,51 +1485,51 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>12000</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40417.824540457572</c:v>
+                  <c:v>19283.042118970367</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10284.911774408707</c:v>
+                  <c:v>43709.823692218881</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10087.180949254118</c:v>
+                  <c:v>44248.4220525376</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25537.980949254121</c:v>
+                  <c:v>10540.776519765759</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22931.711774408708</c:v>
+                  <c:v>11938.918689039821</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42195.024540457569</c:v>
+                  <c:v>50983.71612182937</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10931.111774408706</c:v>
+                  <c:v>47726.863400003029</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11387.180949254118</c:v>
+                  <c:v>48220.289169209609</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40129.777077216313</c:v>
+                  <c:v>37682.867713520049</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10848.398195532201</c:v>
+                  <c:v>44827.8721002112</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>26209.110195532205</c:v>
+                  <c:v>12139.814930199653</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25654.377077216312</c:v>
+                  <c:v>47419.574760442287</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12451.598195532202</c:v>
+                  <c:v>50088.476920599649</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3350-48DF-A99C-6FB4100C1476}"/>
             </c:ext>
@@ -1544,11 +1544,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="41813504"/>
-        <c:axId val="41815040"/>
+        <c:axId val="168188416"/>
+        <c:axId val="193840256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="41813504"/>
+        <c:axId val="168188416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1558,7 +1558,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41815040"/>
+        <c:crossAx val="193840256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1566,7 +1566,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="41815040"/>
+        <c:axId val="193840256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1589,13 +1589,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41813504"/>
+        <c:crossAx val="168188416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1613,9 +1614,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1780,7 +1781,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-41B7-4161-A3FD-A74535C0EF25}"/>
             </c:ext>
@@ -1909,7 +1910,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-41B7-4161-A3FD-A74535C0EF25}"/>
             </c:ext>
@@ -1924,11 +1925,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="41843328"/>
-        <c:axId val="41857408"/>
+        <c:axId val="163967488"/>
+        <c:axId val="193841984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="41843328"/>
+        <c:axId val="163967488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1945,10 +1946,10 @@
             <a:pPr>
               <a:defRPr sz="1200"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41857408"/>
+        <c:crossAx val="193841984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1956,7 +1957,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="41857408"/>
+        <c:axId val="193841984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1979,6 +1980,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1992,10 +1994,10 @@
             <a:pPr>
               <a:defRPr sz="1200"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41843328"/>
+        <c:crossAx val="163967488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2011,7 +2013,7 @@
             <a:pPr>
               <a:defRPr sz="1400"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
@@ -2024,7 +2026,7 @@
             <a:pPr>
               <a:defRPr sz="1400"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
@@ -2053,9 +2055,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2232,7 +2234,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-111F-41C6-80A4-5A2D634965A5}"/>
             </c:ext>
@@ -2397,7 +2399,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-111F-41C6-80A4-5A2D634965A5}"/>
             </c:ext>
@@ -2562,7 +2564,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-111F-41C6-80A4-5A2D634965A5}"/>
             </c:ext>
@@ -2577,11 +2579,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="41879040"/>
-        <c:axId val="41880576"/>
+        <c:axId val="163969024"/>
+        <c:axId val="193844288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="41879040"/>
+        <c:axId val="163969024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2591,7 +2593,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41880576"/>
+        <c:crossAx val="193844288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2599,7 +2601,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="41880576"/>
+        <c:axId val="193844288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2610,7 +2612,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41879040"/>
+        <c:crossAx val="163969024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2651,7 +2653,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2692,7 +2694,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2733,7 +2735,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2774,7 +2776,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2838,7 +2840,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2871,26 +2873,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2923,23 +2908,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3118,31 +3086,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y46"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3:V15"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="29.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
-    <col min="9" max="10" width="19.109375" customWidth="1"/>
+    <col min="1" max="2" width="29.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="9" max="10" width="19.140625" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" customWidth="1"/>
-    <col min="14" max="14" width="16.44140625" customWidth="1"/>
-    <col min="15" max="15" width="22.109375" customWidth="1"/>
-    <col min="16" max="16" width="13.5546875" customWidth="1"/>
-    <col min="17" max="18" width="11.6640625" customWidth="1"/>
-    <col min="24" max="24" width="13.44140625" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" customWidth="1"/>
+    <col min="15" max="15" width="22.140625" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" customWidth="1"/>
+    <col min="17" max="18" width="11.7109375" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" s="9" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3216,7 +3184,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>23</v>
       </c>
@@ -3256,7 +3224,7 @@
       </c>
       <c r="X2" s="13"/>
     </row>
-    <row r="3" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>73</v>
       </c>
@@ -3318,7 +3286,7 @@
         <v>108181.99766751831</v>
       </c>
       <c r="T3" s="11">
-        <v>37680.456378238385</v>
+        <v>5652.0684567357575</v>
       </c>
       <c r="U3" s="11">
         <v>7048</v>
@@ -3332,10 +3300,10 @@
       </c>
       <c r="X3" s="12">
         <f t="shared" ref="X3:X14" si="0">S3+T3+U3+V3</f>
-        <v>535454.45404575672</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>503426.06612425408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>66</v>
       </c>
@@ -3396,7 +3364,7 @@
         <v>108181.99766751831</v>
       </c>
       <c r="T4" s="11">
-        <v>25629.179773352305</v>
+        <v>3844.3769660028456</v>
       </c>
       <c r="U4" s="11">
         <v>11184</v>
@@ -3410,10 +3378,10 @@
       </c>
       <c r="X4" s="12">
         <f t="shared" si="0"/>
-        <v>223279.17744087061</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>201494.37463352116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>67</v>
       </c>
@@ -3470,7 +3438,7 @@
         <v>66893.848581055019</v>
       </c>
       <c r="T5" s="11">
-        <v>29224.246344356696</v>
+        <v>4383.6369516535042</v>
       </c>
       <c r="U5" s="11">
         <v>16000</v>
@@ -3484,10 +3452,10 @@
       </c>
       <c r="X5" s="12">
         <f t="shared" si="0"/>
-        <v>187378.09492541171</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>162537.48553270852</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>68</v>
       </c>
@@ -3548,7 +3516,7 @@
         <v>66893.848581055019</v>
       </c>
       <c r="T6" s="11">
-        <v>29224.246344356696</v>
+        <v>4383.6369516535042</v>
       </c>
       <c r="U6" s="11">
         <v>16000</v>
@@ -3562,10 +3530,10 @@
       </c>
       <c r="X6" s="12">
         <f t="shared" si="0"/>
-        <v>341886.09492541174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>317045.48553270852</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>69</v>
       </c>
@@ -3626,7 +3594,7 @@
         <v>108181.99766751831</v>
       </c>
       <c r="T7" s="11">
-        <v>25629.179773352305</v>
+        <v>3844.3769660028456</v>
       </c>
       <c r="U7" s="11">
         <v>19368</v>
@@ -3640,10 +3608,10 @@
       </c>
       <c r="X7" s="12">
         <f t="shared" si="0"/>
-        <v>349747.17744087061</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>327962.37463352119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>70</v>
       </c>
@@ -3702,7 +3670,7 @@
         <v>108181.99766751831</v>
       </c>
       <c r="T8" s="11">
-        <v>37680.456378238385</v>
+        <v>5652.0684567357575</v>
       </c>
       <c r="U8" s="11">
         <v>7404</v>
@@ -3716,10 +3684,10 @@
       </c>
       <c r="X8" s="12">
         <f t="shared" si="0"/>
-        <v>553226.45404575672</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>521198.06612425408</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>71</v>
       </c>
@@ -3778,7 +3746,7 @@
         <v>108181.99766751831</v>
       </c>
       <c r="T9" s="11">
-        <v>25629.179773352305</v>
+        <v>3844.3769660028456</v>
       </c>
       <c r="U9" s="11">
         <v>19368</v>
@@ -3792,10 +3760,10 @@
       </c>
       <c r="X9" s="12">
         <f t="shared" si="0"/>
-        <v>229741.17744087061</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>207956.37463352116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>72</v>
       </c>
@@ -3853,7 +3821,7 @@
         <v>66893.848581055019</v>
       </c>
       <c r="T10" s="11">
-        <v>29224.246344356696</v>
+        <v>4383.6369516535042</v>
       </c>
       <c r="U10" s="11">
         <v>29000</v>
@@ -3867,10 +3835,10 @@
       </c>
       <c r="X10" s="12">
         <f t="shared" si="0"/>
-        <v>200378.09492541171</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.3">
+        <v>175537.48553270852</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>74</v>
       </c>
@@ -3930,7 +3898,7 @@
         <v>88649.250981062796</v>
       </c>
       <c r="T11" s="11">
-        <v>25188.456740568523</v>
+        <v>3778.2685110852781</v>
       </c>
       <c r="U11" s="11">
         <v>8632</v>
@@ -3944,10 +3912,10 @@
       </c>
       <c r="X11" s="12">
         <f t="shared" si="0"/>
-        <v>503751.70772163133</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>482341.51949214807</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>75</v>
       </c>
@@ -4006,7 +3974,7 @@
         <v>89276.478946812786</v>
       </c>
       <c r="T12" s="11">
-        <v>24423.340606407441</v>
+        <v>3663.5010909611156</v>
       </c>
       <c r="U12" s="11">
         <v>19032</v>
@@ -4020,10 +3988,10 @@
       </c>
       <c r="X12" s="12">
         <f t="shared" si="0"/>
-        <v>210813.81955322024</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>190053.9800377739</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>76</v>
       </c>
@@ -4083,7 +4051,7 @@
         <v>89276.478946812786</v>
       </c>
       <c r="T13" s="11">
-        <v>50174.540606407441</v>
+        <v>7526.1810909611158</v>
       </c>
       <c r="U13" s="11">
         <v>35064</v>
@@ -4097,10 +4065,10 @@
       </c>
       <c r="X13" s="12">
         <f t="shared" si="0"/>
-        <v>387597.01955322025</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>344948.66003777389</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>77</v>
       </c>
@@ -4159,7 +4127,7 @@
         <v>88649.250981062796</v>
       </c>
       <c r="T14" s="11">
-        <v>25188.456740568523</v>
+        <v>3778.2685110852781</v>
       </c>
       <c r="U14" s="11">
         <v>25528</v>
@@ -4173,10 +4141,10 @@
       </c>
       <c r="X14" s="12">
         <f t="shared" si="0"/>
-        <v>358997.70772163133</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>337587.51949214807</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>78</v>
       </c>
@@ -4236,7 +4204,7 @@
         <v>89276.478946812786</v>
       </c>
       <c r="T15" s="11">
-        <v>24423.340606407441</v>
+        <v>3663.5010909611156</v>
       </c>
       <c r="U15" s="11">
         <v>35064</v>
@@ -4250,16 +4218,16 @@
       </c>
       <c r="X15" s="12">
         <f t="shared" ref="X15" si="2">SUM(S15:V15)</f>
-        <v>226845.81955322024</v>
-      </c>
-    </row>
-    <row r="27" spans="17:17" x14ac:dyDescent="0.3">
+        <v>206085.9800377739</v>
+      </c>
+    </row>
+    <row r="27" spans="17:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="Q27">
         <f>0.02/1000</f>
         <v>2.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="42" spans="18:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="18:25" x14ac:dyDescent="0.25">
       <c r="R42" s="5" t="s">
         <v>52</v>
       </c>
@@ -4273,12 +4241,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="18:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="18:25" x14ac:dyDescent="0.25">
       <c r="S43" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="18:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="18:25" x14ac:dyDescent="0.25">
       <c r="R44" t="s">
         <v>55</v>
       </c>
@@ -4298,7 +4266,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="18:25" x14ac:dyDescent="0.3">
+    <row r="45" spans="18:25" x14ac:dyDescent="0.25">
       <c r="S45" t="s">
         <v>57</v>
       </c>
@@ -4309,7 +4277,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="18:25" x14ac:dyDescent="0.3">
+    <row r="46" spans="18:25" x14ac:dyDescent="0.25">
       <c r="R46" t="s">
         <v>60</v>
       </c>
@@ -4345,7 +4313,7 @@
       <selection sqref="A1:U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -5794,7 +5762,7 @@
       <selection activeCell="S46" sqref="S46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -7243,9 +7211,9 @@
       <selection sqref="A1:U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="19" max="19" width="16.88671875" customWidth="1"/>
+    <col min="19" max="19" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
@@ -8695,7 +8663,7 @@
       <selection sqref="A1:U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -10144,7 +10112,7 @@
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -11593,7 +11561,7 @@
       <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -13042,7 +13010,7 @@
       <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -14491,7 +14459,7 @@
       <selection activeCell="R39" sqref="R39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -15936,27 +15904,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="34.5546875" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" customWidth="1"/>
     <col min="8" max="8" width="25" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="16.88671875" customWidth="1"/>
-    <col min="12" max="12" width="12.5546875" customWidth="1"/>
-    <col min="13" max="13" width="15.33203125" customWidth="1"/>
-    <col min="14" max="14" width="16.44140625" customWidth="1"/>
-    <col min="15" max="15" width="25.6640625" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" customWidth="1"/>
+    <col min="15" max="15" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -16015,55 +15983,55 @@
       </c>
       <c r="C2">
         <f>CAPEX!$X3</f>
-        <v>535454.45404575672</v>
+        <v>503426.06612425408</v>
       </c>
       <c r="D2">
         <f>CAPEX!$X4</f>
-        <v>223279.17744087061</v>
+        <v>201494.37463352116</v>
       </c>
       <c r="E2">
         <f>CAPEX!$X5</f>
-        <v>187378.09492541171</v>
+        <v>162537.48553270852</v>
       </c>
       <c r="F2">
         <f>CAPEX!$X6</f>
-        <v>341886.09492541174</v>
+        <v>317045.48553270852</v>
       </c>
       <c r="G2">
         <f>CAPEX!$X7</f>
-        <v>349747.17744087061</v>
+        <v>327962.37463352119</v>
       </c>
       <c r="H2">
         <f>CAPEX!$X8</f>
-        <v>553226.45404575672</v>
+        <v>521198.06612425408</v>
       </c>
       <c r="I2">
         <f>CAPEX!$X9</f>
-        <v>229741.17744087061</v>
+        <v>207956.37463352116</v>
       </c>
       <c r="J2">
         <f>CAPEX!$X10</f>
-        <v>200378.09492541171</v>
+        <v>175537.48553270852</v>
       </c>
       <c r="K2">
         <f>CAPEX!$X11</f>
-        <v>503751.70772163133</v>
+        <v>482341.51949214807</v>
       </c>
       <c r="L2">
         <f>CAPEX!$X12</f>
-        <v>210813.81955322024</v>
+        <v>190053.9800377739</v>
       </c>
       <c r="M2">
         <f>CAPEX!$X13</f>
-        <v>387597.01955322025</v>
+        <v>344948.66003777389</v>
       </c>
       <c r="N2">
         <f>CAPEX!$X14</f>
-        <v>358997.70772163133</v>
+        <v>337587.51949214807</v>
       </c>
       <c r="O2">
         <f>CAPEX!$X15</f>
-        <v>226845.81955322024</v>
+        <v>206085.9800377739</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -16138,7 +16106,7 @@
       </c>
       <c r="G4">
         <f>G2-D2</f>
-        <v>126468</v>
+        <v>126468.00000000003</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -16184,7 +16152,7 @@
       </c>
       <c r="F5">
         <f>F2-E2</f>
-        <v>154508.00000000003</v>
+        <v>154508</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -16379,7 +16347,7 @@
       </c>
       <c r="G9">
         <f>G2-I2</f>
-        <v>120006</v>
+        <v>120006.00000000003</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -16424,7 +16392,7 @@
       </c>
       <c r="F10">
         <f>F2-J2</f>
-        <v>141508.00000000003</v>
+        <v>141508</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -16544,7 +16512,7 @@
       </c>
       <c r="M12">
         <f>M2-L2</f>
-        <v>176783.2</v>
+        <v>154894.68</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -16640,7 +16608,7 @@
       </c>
       <c r="M14">
         <f>M2-N2</f>
-        <v>28599.311831588915</v>
+        <v>7361.1405456258217</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -16689,7 +16657,7 @@
       </c>
       <c r="M15">
         <f>M2-O2</f>
-        <v>160751.20000000001</v>
+        <v>138862.68</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -16728,17 +16696,17 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
-    <col min="2" max="2" width="39.88671875" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>22</v>
       </c>
@@ -16746,129 +16714,116 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="12">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>73</v>
       </c>
       <c r="B3" s="12">
-        <f>0.1*(CAPEX!U3+CAPEX!V3)+0.01*(CAPEX!S3+CAPEX!T3)</f>
-        <v>40417.824540457572</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>19283.042118970367</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>66</v>
       </c>
       <c r="B4" s="12">
-        <f>0.1*(CAPEX!U4+CAPEX!V4)+0.01*(CAPEX!S4+CAPEX!T4)</f>
-        <v>10284.911774408707</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>43709.823692218881</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>67</v>
       </c>
       <c r="B5" s="12">
-        <f>0.1*(CAPEX!U5+CAPEX!V5)+0.01*(CAPEX!S5+CAPEX!T5)</f>
-        <v>10087.180949254118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>44248.4220525376</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B6" s="12">
-        <f>0.1*(CAPEX!U6+CAPEX!V6)+0.01*(CAPEX!S6+CAPEX!T6)</f>
-        <v>25537.980949254121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>10540.776519765759</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>69</v>
       </c>
       <c r="B7" s="12">
-        <f>0.1*(CAPEX!U7+CAPEX!V7)+0.01*(CAPEX!S7+CAPEX!T7)</f>
-        <v>22931.711774408708</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>11938.918689039821</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>70</v>
       </c>
       <c r="B8" s="12">
-        <f>0.1*(CAPEX!U8+CAPEX!V8)+0.01*(CAPEX!S8+CAPEX!T8)</f>
-        <v>42195.024540457569</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>50983.71612182937</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>71</v>
       </c>
       <c r="B9" s="12">
-        <f>0.1*(CAPEX!U9+CAPEX!V9)+0.01*(CAPEX!S9+CAPEX!T9)</f>
-        <v>10931.111774408706</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>47726.863400003029</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>72</v>
       </c>
       <c r="B10" s="12">
-        <f>0.1*(CAPEX!U10+CAPEX!V10)+0.01*(CAPEX!S10+CAPEX!T10)</f>
-        <v>11387.180949254118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>48220.289169209609</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>74</v>
       </c>
       <c r="B11" s="12">
-        <f>0.1*(CAPEX!U11+CAPEX!V11)+0.01*(CAPEX!S11+CAPEX!T11)</f>
-        <v>40129.777077216313</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>37682.867713520049</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>75</v>
       </c>
       <c r="B12" s="12">
-        <f>0.1*(CAPEX!U12+CAPEX!V12)+0.01*(CAPEX!S12+CAPEX!T12)</f>
-        <v>10848.398195532201</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>44827.8721002112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>76</v>
       </c>
       <c r="B13" s="12">
-        <f>0.1*(CAPEX!U13+CAPEX!V13)+0.01*(CAPEX!S13+CAPEX!T13)</f>
-        <v>26209.110195532205</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>12139.814930199653</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>77</v>
       </c>
       <c r="B14" s="12">
-        <f>0.1*(CAPEX!U14+CAPEX!V14)+0.01*(CAPEX!S14+CAPEX!T14)</f>
-        <v>25654.377077216312</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>47419.574760442287</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>78</v>
       </c>
       <c r="B15" s="12">
-        <f>0.1*(CAPEX!U15+CAPEX!V15)+0.01*(CAPEX!S15+CAPEX!T15)</f>
-        <v>12451.598195532202</v>
+        <v>50088.476920599649</v>
       </c>
     </row>
   </sheetData>
@@ -16885,26 +16840,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH74"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" customWidth="1"/>
-    <col min="7" max="7" width="23.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1"/>
     <col min="8" max="8" width="23" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" customWidth="1"/>
-    <col min="34" max="34" width="17.88671875" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="34" max="34" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -16984,7 +16939,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2018</v>
       </c>
@@ -17032,31 +16987,31 @@
       </c>
       <c r="U2" s="7">
         <f>OPEX!$B$15</f>
-        <v>12451.598195532202</v>
+        <v>50088.476920599649</v>
       </c>
       <c r="V2" s="11">
         <f>O2-U2</f>
-        <v>-11167.598195532202</v>
+        <v>-48804.476920599649</v>
       </c>
       <c r="W2" s="11">
         <f>P2-U2</f>
-        <v>-11167.598195532202</v>
+        <v>-48804.476920599649</v>
       </c>
       <c r="X2" s="11">
         <f t="shared" ref="X2:X22" si="1">Q2-U2</f>
-        <v>-11167.598195532202</v>
+        <v>-48804.476920599649</v>
       </c>
       <c r="Y2" s="11">
         <f>R2-$U2</f>
-        <v>-11311.598195532202</v>
+        <v>-48948.476920599649</v>
       </c>
       <c r="Z2" s="11">
         <f>S2-$U2</f>
-        <v>-11311.598195532202</v>
+        <v>-48948.476920599649</v>
       </c>
       <c r="AA2" s="11">
         <f>T2-$U2</f>
-        <v>-11311.598195532202</v>
+        <v>-48948.476920599649</v>
       </c>
       <c r="AB2" s="11">
         <f>1/POWER(1+$L$25,N2-2018)</f>
@@ -17064,30 +17019,30 @@
       </c>
       <c r="AC2" s="12">
         <f>V2*AB2</f>
-        <v>-11167.598195532202</v>
+        <v>-48804.476920599649</v>
       </c>
       <c r="AD2" s="12">
         <f>W2*AB2</f>
-        <v>-11167.598195532202</v>
+        <v>-48804.476920599649</v>
       </c>
       <c r="AE2" s="12">
         <f>X2*AB2</f>
-        <v>-11167.598195532202</v>
+        <v>-48804.476920599649</v>
       </c>
       <c r="AF2" s="12">
         <f>Y2*$AB2</f>
-        <v>-11311.598195532202</v>
+        <v>-48948.476920599649</v>
       </c>
       <c r="AG2" s="12">
         <f>Z2*$AB2</f>
-        <v>-11311.598195532202</v>
+        <v>-48948.476920599649</v>
       </c>
       <c r="AH2" s="12">
         <f>AA2*$AB2</f>
-        <v>-11311.598195532202</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+        <v>-48948.476920599649</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2019</v>
       </c>
@@ -17134,31 +17089,31 @@
       </c>
       <c r="U3" s="7">
         <f>OPEX!$B$15</f>
-        <v>12451.598195532202</v>
+        <v>50088.476920599649</v>
       </c>
       <c r="V3" s="11">
         <f t="shared" ref="V3:V22" si="8">O3-U3</f>
-        <v>-10735.598195532202</v>
+        <v>-48372.476920599649</v>
       </c>
       <c r="W3" s="11">
         <f t="shared" ref="W3:W22" si="9">P3-U3</f>
-        <v>-10651.598195532202</v>
+        <v>-48288.476920599649</v>
       </c>
       <c r="X3" s="11">
         <f t="shared" si="1"/>
-        <v>-10015.598195532202</v>
+        <v>-47652.476920599649</v>
       </c>
       <c r="Y3" s="11">
         <f t="shared" ref="Y3:Y22" si="10">R3-$U3</f>
-        <v>-10915.598195532202</v>
+        <v>-48552.476920599649</v>
       </c>
       <c r="Z3" s="11">
         <f t="shared" ref="Z3:Z22" si="11">S3-$U3</f>
-        <v>-10843.598195532202</v>
+        <v>-48480.476920599649</v>
       </c>
       <c r="AA3" s="11">
         <f t="shared" ref="AA3:AA22" si="12">T3-$U3</f>
-        <v>-10291.598195532202</v>
+        <v>-47928.476920599649</v>
       </c>
       <c r="AB3" s="11">
         <f t="shared" ref="AB3:AB22" si="13">1/POWER(1+$L$25,N3-2018)</f>
@@ -17166,30 +17121,30 @@
       </c>
       <c r="AC3" s="12">
         <f t="shared" ref="AC3:AC22" si="14">V3*AB3</f>
-        <v>-9759.6347232110929</v>
+        <v>-43974.979018726954</v>
       </c>
       <c r="AD3" s="12">
         <f t="shared" ref="AD3:AD22" si="15">W3*AB3</f>
-        <v>-9683.2710868474569</v>
+        <v>-43898.615382363314</v>
       </c>
       <c r="AE3" s="12">
         <f t="shared" ref="AE3:AE22" si="16">X3*AB3</f>
-        <v>-9105.0892686656389</v>
+        <v>-43320.433564181498</v>
       </c>
       <c r="AF3" s="12">
         <f t="shared" ref="AF3:AF22" si="17">Y3*$AB3</f>
-        <v>-9923.2710868474569</v>
+        <v>-44138.615382363314</v>
       </c>
       <c r="AG3" s="12">
         <f t="shared" ref="AG3:AG22" si="18">Z3*$AB3</f>
-        <v>-9857.8165413929109</v>
+        <v>-44073.16083690877</v>
       </c>
       <c r="AH3" s="12">
         <f t="shared" ref="AH3:AH22" si="19">AA3*$AB3</f>
-        <v>-9355.998359574729</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+        <v>-43571.342655090586</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2020</v>
       </c>
@@ -17245,31 +17200,31 @@
       </c>
       <c r="U4" s="7">
         <f>OPEX!$B$15</f>
-        <v>12451.598195532202</v>
+        <v>50088.476920599649</v>
       </c>
       <c r="V4" s="11">
         <f t="shared" si="8"/>
-        <v>-10099.598195532202</v>
+        <v>-47736.476920599649</v>
       </c>
       <c r="W4" s="11">
         <f t="shared" si="9"/>
-        <v>-9979.5981955322022</v>
+        <v>-47616.476920599649</v>
       </c>
       <c r="X4" s="11">
         <f t="shared" si="1"/>
-        <v>-7807.5981955322022</v>
+        <v>-45444.476920599649</v>
       </c>
       <c r="Y4" s="11">
         <f t="shared" si="10"/>
-        <v>-10363.598195532202</v>
+        <v>-48000.476920599649</v>
       </c>
       <c r="Z4" s="11">
         <f t="shared" si="11"/>
-        <v>-10255.598195532202</v>
+        <v>-47892.476920599649</v>
       </c>
       <c r="AA4" s="11">
         <f t="shared" si="12"/>
-        <v>-8299.5981955322022</v>
+        <v>-45936.476920599649</v>
       </c>
       <c r="AB4" s="11">
         <f t="shared" si="13"/>
@@ -17277,30 +17232,30 @@
       </c>
       <c r="AC4" s="12">
         <f t="shared" si="14"/>
-        <v>-8346.7753682084312</v>
+        <v>-39451.633818677394</v>
       </c>
       <c r="AD4" s="12">
         <f t="shared" si="15"/>
-        <v>-8247.6018144894224</v>
+        <v>-39352.460264958383</v>
       </c>
       <c r="AE4" s="12">
         <f t="shared" si="16"/>
-        <v>-6452.5604921753729</v>
+        <v>-37557.418942644334</v>
       </c>
       <c r="AF4" s="12">
         <f t="shared" si="17"/>
-        <v>-8564.9571863902493</v>
+        <v>-39669.81563685921</v>
       </c>
       <c r="AG4" s="12">
         <f t="shared" si="18"/>
-        <v>-8475.7009880431415</v>
+        <v>-39580.5594385121</v>
       </c>
       <c r="AH4" s="12">
         <f t="shared" si="19"/>
-        <v>-6859.1720624233067</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+        <v>-37964.03051289227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2021</v>
       </c>
@@ -17357,31 +17312,31 @@
       </c>
       <c r="U5" s="7">
         <f>OPEX!$B$15</f>
-        <v>12451.598195532202</v>
+        <v>50088.476920599649</v>
       </c>
       <c r="V5" s="11">
         <f t="shared" si="8"/>
-        <v>-9271.5981955322022</v>
+        <v>-46908.476920599649</v>
       </c>
       <c r="W5" s="11">
         <f t="shared" si="9"/>
-        <v>-8935.5981955322022</v>
+        <v>-46572.476920599649</v>
       </c>
       <c r="X5" s="11">
         <f t="shared" si="1"/>
-        <v>-3415.5981955322022</v>
+        <v>-41052.476920599649</v>
       </c>
       <c r="Y5" s="11">
         <f t="shared" si="10"/>
-        <v>-9607.5981955322022</v>
+        <v>-47244.476920599649</v>
       </c>
       <c r="Z5" s="11">
         <f t="shared" si="11"/>
-        <v>-9295.5981955322022</v>
+        <v>-46932.476920599649</v>
       </c>
       <c r="AA5" s="11">
         <f t="shared" si="12"/>
-        <v>-4339.5981955322022</v>
+        <v>-41976.476920599649</v>
       </c>
       <c r="AB5" s="11">
         <f t="shared" si="13"/>
@@ -17389,30 +17344,30 @@
       </c>
       <c r="AC5" s="12">
         <f t="shared" si="14"/>
-        <v>-6965.8889523157022</v>
+        <v>-35243.03299819657</v>
       </c>
       <c r="AD5" s="12">
         <f t="shared" si="15"/>
-        <v>-6713.4471792127724</v>
+        <v>-34990.591225093638</v>
       </c>
       <c r="AE5" s="12">
         <f t="shared" si="16"/>
-        <v>-2566.1894782360641</v>
+        <v>-30843.333524116933</v>
       </c>
       <c r="AF5" s="12">
         <f t="shared" si="17"/>
-        <v>-7218.330725418632</v>
+        <v>-35495.474771299501</v>
       </c>
       <c r="AG5" s="12">
         <f t="shared" si="18"/>
-        <v>-6983.9205075373402</v>
+        <v>-35261.064553418211</v>
       </c>
       <c r="AH5" s="12">
         <f t="shared" si="19"/>
-        <v>-3260.4043542691215</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+        <v>-31537.54840014999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2022</v>
       </c>
@@ -17469,31 +17424,31 @@
       </c>
       <c r="U6" s="7">
         <f>OPEX!$B$15</f>
-        <v>12451.598195532202</v>
+        <v>50088.476920599649</v>
       </c>
       <c r="V6" s="11">
         <f t="shared" si="8"/>
-        <v>-8107.5981955322022</v>
+        <v>-45744.476920599649</v>
       </c>
       <c r="W6" s="11">
         <f t="shared" si="9"/>
-        <v>-7495.5981955322022</v>
+        <v>-45132.476920599649</v>
       </c>
       <c r="X6" s="11">
         <f t="shared" si="1"/>
-        <v>5080.4018044677978</v>
+        <v>-32556.476920599649</v>
       </c>
       <c r="Y6" s="11">
         <f t="shared" si="10"/>
-        <v>-8575.5981955322022</v>
+        <v>-46212.476920599649</v>
       </c>
       <c r="Z6" s="11">
         <f t="shared" si="11"/>
-        <v>-8011.5981955322022</v>
+        <v>-45648.476920599649</v>
       </c>
       <c r="AA6" s="11">
         <f t="shared" si="12"/>
-        <v>3316.4018044677978</v>
+        <v>-34320.476920599649</v>
       </c>
       <c r="AB6" s="11">
         <f t="shared" si="13"/>
@@ -17501,30 +17456,30 @@
       </c>
       <c r="AC6" s="12">
         <f t="shared" si="14"/>
-        <v>-5537.5986582420601</v>
+        <v>-31244.093245406486</v>
       </c>
       <c r="AD6" s="12">
         <f t="shared" si="15"/>
-        <v>-5119.5944235586367</v>
+        <v>-30826.089010723063</v>
       </c>
       <c r="AE6" s="12">
         <f t="shared" si="16"/>
-        <v>3469.9827911124898</v>
+        <v>-22236.511796051938</v>
       </c>
       <c r="AF6" s="12">
         <f t="shared" si="17"/>
-        <v>-5857.2489553529131</v>
+        <v>-31563.743542517339</v>
       </c>
       <c r="AG6" s="12">
         <f t="shared" si="18"/>
-        <v>-5472.0293665270137</v>
+        <v>-31178.523953691441</v>
       </c>
       <c r="AH6" s="12">
         <f t="shared" si="19"/>
-        <v>2265.1470558485057</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+        <v>-23441.347531315922</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2023</v>
       </c>
@@ -17581,31 +17536,31 @@
       </c>
       <c r="U7" s="7">
         <f>OPEX!$B$15</f>
-        <v>12451.598195532202</v>
+        <v>50088.476920599649</v>
       </c>
       <c r="V7" s="11">
         <f t="shared" si="8"/>
-        <v>-6523.5981955322022</v>
+        <v>-44160.476920599649</v>
       </c>
       <c r="W7" s="11">
         <f t="shared" si="9"/>
-        <v>-5455.5981955322022</v>
+        <v>-43092.476920599649</v>
       </c>
       <c r="X7" s="11">
         <f t="shared" si="1"/>
-        <v>21376.401804467798</v>
+        <v>-16260.476920599649</v>
       </c>
       <c r="Y7" s="11">
         <f t="shared" si="10"/>
-        <v>-7123.5981955322022</v>
+        <v>-44760.476920599649</v>
       </c>
       <c r="Z7" s="11">
         <f t="shared" si="11"/>
-        <v>-6175.5981955322022</v>
+        <v>-43812.476920599649</v>
       </c>
       <c r="AA7" s="11">
         <f t="shared" si="12"/>
-        <v>17968.401804467798</v>
+        <v>-19668.476920599649</v>
       </c>
       <c r="AB7" s="11">
         <f t="shared" si="13"/>
@@ -17613,30 +17568,30 @@
       </c>
       <c r="AC7" s="12">
         <f t="shared" si="14"/>
-        <v>-4050.6412226761709</v>
+        <v>-27420.181756462011</v>
       </c>
       <c r="AD7" s="12">
         <f t="shared" si="15"/>
-        <v>-3387.4972496489931</v>
+        <v>-26757.037783434833</v>
       </c>
       <c r="AE7" s="12">
         <f t="shared" si="16"/>
-        <v>13273.063690674251</v>
+        <v>-10096.476843111588</v>
       </c>
       <c r="AF7" s="12">
         <f t="shared" si="17"/>
-        <v>-4423.1940165116639</v>
+        <v>-27792.734550297504</v>
       </c>
       <c r="AG7" s="12">
         <f t="shared" si="18"/>
-        <v>-3834.5606022515849</v>
+        <v>-27204.101136037425</v>
       </c>
       <c r="AH7" s="12">
         <f t="shared" si="19"/>
-        <v>11156.963821688652</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+        <v>-12212.576712097187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2024</v>
       </c>
@@ -17693,31 +17648,31 @@
       </c>
       <c r="U8" s="7">
         <f>OPEX!$B$15</f>
-        <v>12451.598195532202</v>
+        <v>50088.476920599649</v>
       </c>
       <c r="V8" s="11">
         <f t="shared" si="8"/>
-        <v>-4339.5981955322022</v>
+        <v>-41976.476920599649</v>
       </c>
       <c r="W8" s="11">
         <f t="shared" si="9"/>
-        <v>-2539.5981955322022</v>
+        <v>-40176.476920599649</v>
       </c>
       <c r="X8" s="11">
         <f t="shared" si="1"/>
-        <v>51280.401804467794</v>
+        <v>13643.523079400351</v>
       </c>
       <c r="Y8" s="11">
         <f t="shared" si="10"/>
-        <v>-5191.5981955322022</v>
+        <v>-42828.476920599649</v>
       </c>
       <c r="Z8" s="11">
         <f t="shared" si="11"/>
-        <v>-3535.5981955322022</v>
+        <v>-41172.476920599649</v>
       </c>
       <c r="AA8" s="11">
         <f t="shared" si="12"/>
-        <v>44884.401804467794</v>
+        <v>7247.523079400351</v>
       </c>
       <c r="AB8" s="11">
         <f t="shared" si="13"/>
@@ -17725,30 +17680,30 @@
       </c>
       <c r="AC8" s="12">
         <f t="shared" si="14"/>
-        <v>-2449.5900482863422</v>
+        <v>-23694.626897182559</v>
       </c>
       <c r="AD8" s="12">
         <f t="shared" si="15"/>
-        <v>-1433.5369741895431</v>
+        <v>-22678.573823085761</v>
       </c>
       <c r="AE8" s="12">
         <f t="shared" si="16"/>
-        <v>28946.449941304745</v>
+        <v>7701.4130924085284</v>
       </c>
       <c r="AF8" s="12">
         <f t="shared" si="17"/>
-        <v>-2930.5218366921604</v>
+        <v>-24175.558685588378</v>
       </c>
       <c r="AG8" s="12">
         <f t="shared" si="18"/>
-        <v>-1995.7530085231053</v>
+        <v>-23240.789857419324</v>
       </c>
       <c r="AH8" s="12">
         <f t="shared" si="19"/>
-        <v>25336.074684680785</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+        <v>4091.0378357845698</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2025</v>
       </c>
@@ -17804,31 +17759,31 @@
       </c>
       <c r="U9" s="7">
         <f>OPEX!$B$15</f>
-        <v>12451.598195532202</v>
+        <v>50088.476920599649</v>
       </c>
       <c r="V9" s="11">
         <f t="shared" si="8"/>
-        <v>-1363.5981955322022</v>
+        <v>-39000.476920599649</v>
       </c>
       <c r="W9" s="11">
         <f t="shared" si="9"/>
-        <v>1564.4018044677978</v>
+        <v>-36072.476920599649</v>
       </c>
       <c r="X9" s="11">
         <f t="shared" si="1"/>
-        <v>102088.40180446779</v>
+        <v>64451.523079400351</v>
       </c>
       <c r="Y9" s="11">
         <f t="shared" si="10"/>
-        <v>-2491.5981955322022</v>
+        <v>-40128.476920599649</v>
       </c>
       <c r="Z9" s="11">
         <f t="shared" si="11"/>
-        <v>124.40180446779777</v>
+        <v>-37512.476920599649</v>
       </c>
       <c r="AA9" s="11">
         <f t="shared" si="12"/>
-        <v>90616.401804467794</v>
+        <v>52979.523079400351</v>
       </c>
       <c r="AB9" s="11">
         <f t="shared" si="13"/>
@@ -17836,30 +17791,30 @@
       </c>
       <c r="AC9" s="12">
         <f t="shared" si="14"/>
-        <v>-699.74148404209177</v>
+        <v>-20013.411346675013</v>
       </c>
       <c r="AD9" s="12">
         <f t="shared" si="15"/>
-        <v>802.78548613741668</v>
+        <v>-18510.884376495505</v>
       </c>
       <c r="AE9" s="12">
         <f t="shared" si="16"/>
-        <v>52387.492163160947</v>
+        <v>33073.822300528031</v>
       </c>
       <c r="AF9" s="12">
         <f t="shared" si="17"/>
-        <v>-1278.5838414063287</v>
+        <v>-20592.253704039249</v>
       </c>
       <c r="AG9" s="12">
         <f t="shared" si="18"/>
-        <v>63.837795885199398</v>
+        <v>-19249.83206674772</v>
       </c>
       <c r="AH9" s="12">
         <f t="shared" si="19"/>
-        <v>46500.542230818282</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+        <v>27186.872368185366</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2026</v>
       </c>
@@ -17915,31 +17870,31 @@
       </c>
       <c r="U10" s="7">
         <f>OPEX!$B$15</f>
-        <v>12451.598195532202</v>
+        <v>50088.476920599649</v>
       </c>
       <c r="V10" s="11">
         <f t="shared" si="8"/>
-        <v>2692.4018044677978</v>
+        <v>-34944.476920599649</v>
       </c>
       <c r="W10" s="11">
         <f t="shared" si="9"/>
-        <v>7324.4018044677978</v>
+        <v>-30312.476920599649</v>
       </c>
       <c r="X10" s="11">
         <f t="shared" si="1"/>
-        <v>175780.40180446781</v>
+        <v>138143.52307940036</v>
       </c>
       <c r="Y10" s="11">
         <f t="shared" si="10"/>
-        <v>1156.4018044677978</v>
+        <v>-36480.476920599649</v>
       </c>
       <c r="Z10" s="11">
         <f t="shared" si="11"/>
-        <v>5308.4018044677978</v>
+        <v>-32328.476920599649</v>
       </c>
       <c r="AA10" s="11">
         <f t="shared" si="12"/>
-        <v>156928.40180446781</v>
+        <v>119291.52307940036</v>
       </c>
       <c r="AB10" s="11">
         <f t="shared" si="13"/>
@@ -17947,30 +17902,30 @@
       </c>
       <c r="AC10" s="12">
         <f t="shared" si="14"/>
-        <v>1256.0253122742306</v>
+        <v>-16301.856381028425</v>
       </c>
       <c r="AD10" s="12">
         <f t="shared" si="15"/>
-        <v>3416.8874974057144</v>
+        <v>-14140.994195896941</v>
       </c>
       <c r="AE10" s="12">
         <f t="shared" si="16"/>
-        <v>82002.854738016526</v>
+        <v>64444.973044713872</v>
       </c>
       <c r="AF10" s="12">
         <f t="shared" si="17"/>
-        <v>539.46997627208043</v>
+        <v>-17018.411717030576</v>
       </c>
       <c r="AG10" s="12">
         <f t="shared" si="18"/>
-        <v>2476.4086189028926</v>
+        <v>-15081.473074399764</v>
       </c>
       <c r="AH10" s="12">
         <f t="shared" si="19"/>
-        <v>73208.257606302635</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+        <v>55650.375912999982</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2027</v>
       </c>
@@ -18026,31 +17981,31 @@
       </c>
       <c r="U11" s="7">
         <f>OPEX!$B$15</f>
-        <v>12451.598195532202</v>
+        <v>50088.476920599649</v>
       </c>
       <c r="V11" s="11">
         <f t="shared" si="8"/>
-        <v>8164.4018044677978</v>
+        <v>-29472.476920599649</v>
       </c>
       <c r="W11" s="11">
         <f t="shared" si="9"/>
-        <v>15292.401804467798</v>
+        <v>-22344.476920599649</v>
       </c>
       <c r="X11" s="11">
         <f t="shared" si="1"/>
-        <v>254524.40180446781</v>
+        <v>216887.52307940036</v>
       </c>
       <c r="Y11" s="11">
         <f t="shared" si="10"/>
-        <v>6076.4018044677978</v>
+        <v>-31560.476920599649</v>
       </c>
       <c r="Z11" s="11">
         <f t="shared" si="11"/>
-        <v>12484.401804467798</v>
+        <v>-25152.476920599649</v>
       </c>
       <c r="AA11" s="11">
         <f t="shared" si="12"/>
-        <v>227812.40180446781</v>
+        <v>190175.52307940036</v>
       </c>
       <c r="AB11" s="11">
         <f t="shared" si="13"/>
@@ -18058,30 +18013,30 @@
       </c>
       <c r="AC11" s="12">
         <f t="shared" si="14"/>
-        <v>3462.5033607108094</v>
+        <v>-12499.207269564333</v>
       </c>
       <c r="AD11" s="12">
         <f t="shared" si="15"/>
-        <v>6485.4711844698795</v>
+        <v>-9476.2394458052604</v>
       </c>
       <c r="AE11" s="12">
         <f t="shared" si="16"/>
-        <v>107943.19262295614</v>
+        <v>91981.481992680987</v>
       </c>
       <c r="AF11" s="12">
         <f t="shared" si="17"/>
-        <v>2576.9875335490615</v>
+        <v>-13384.72309672608</v>
       </c>
       <c r="AG11" s="12">
         <f t="shared" si="18"/>
-        <v>5294.6050720799431</v>
+        <v>-10667.105558195199</v>
       </c>
       <c r="AH11" s="12">
         <f t="shared" si="19"/>
-        <v>96614.69704099033</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+        <v>80652.986410715181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2028</v>
       </c>
@@ -18138,31 +18093,31 @@
       </c>
       <c r="U12" s="7">
         <f>OPEX!$B$15</f>
-        <v>12451.598195532202</v>
+        <v>50088.476920599649</v>
       </c>
       <c r="V12" s="11">
         <f t="shared" si="8"/>
-        <v>15508.401804467798</v>
+        <v>-22128.476920599649</v>
       </c>
       <c r="W12" s="11">
         <f t="shared" si="9"/>
-        <v>26128.401804467798</v>
+        <v>-11508.476920599649</v>
       </c>
       <c r="X12" s="11">
         <f t="shared" si="1"/>
-        <v>301804.40180446778</v>
+        <v>264167.52307940036</v>
       </c>
       <c r="Y12" s="11">
         <f t="shared" si="10"/>
-        <v>12676.401804467798</v>
+        <v>-24960.476920599649</v>
       </c>
       <c r="Z12" s="11">
         <f t="shared" si="11"/>
-        <v>22252.401804467798</v>
+        <v>-15384.476920599649</v>
       </c>
       <c r="AA12" s="11">
         <f t="shared" si="12"/>
-        <v>270364.40180446778</v>
+        <v>232727.52307940036</v>
       </c>
       <c r="AB12" s="11">
         <f t="shared" si="13"/>
@@ -18170,30 +18125,30 @@
       </c>
       <c r="AC12" s="12">
         <f t="shared" si="14"/>
-        <v>5979.1602454893964</v>
+        <v>-8531.4857820334582</v>
       </c>
       <c r="AD12" s="12">
         <f t="shared" si="15"/>
-        <v>10073.62997923102</v>
+        <v>-4437.0160482918336</v>
       </c>
       <c r="AE12" s="12">
         <f t="shared" si="16"/>
-        <v>116358.66183600653</v>
+        <v>101848.01580848369</v>
       </c>
       <c r="AF12" s="12">
         <f t="shared" si="17"/>
-        <v>4887.3016498249635</v>
+        <v>-9623.3443776978911</v>
       </c>
       <c r="AG12" s="12">
         <f t="shared" si="18"/>
-        <v>8579.2641894021563</v>
+        <v>-5931.3818381206975</v>
       </c>
       <c r="AH12" s="12">
         <f t="shared" si="19"/>
-        <v>104237.18081634206</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+        <v>89726.534788819219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2029</v>
       </c>
@@ -18249,31 +18204,31 @@
       </c>
       <c r="U13" s="7">
         <f>OPEX!$B$15</f>
-        <v>12451.598195532202</v>
+        <v>50088.476920599649</v>
       </c>
       <c r="V13" s="11">
         <f t="shared" si="8"/>
-        <v>25156.401804467798</v>
+        <v>-12480.476920599649</v>
       </c>
       <c r="W13" s="11">
         <f t="shared" si="9"/>
-        <v>40720.401804467794</v>
+        <v>3083.523079400351</v>
       </c>
       <c r="X13" s="11">
         <f t="shared" si="1"/>
-        <v>311944.40180446778</v>
+        <v>274307.52307940036</v>
       </c>
       <c r="Y13" s="11">
         <f t="shared" si="10"/>
-        <v>21364.401804467798</v>
+        <v>-16272.476920599649</v>
       </c>
       <c r="Z13" s="11">
         <f t="shared" si="11"/>
-        <v>35368.401804467794</v>
+        <v>-2268.476920599649</v>
       </c>
       <c r="AA13" s="11">
         <f t="shared" si="12"/>
-        <v>279496.40180446778</v>
+        <v>241859.52307940036</v>
       </c>
       <c r="AB13" s="11">
         <f t="shared" si="13"/>
@@ -18281,30 +18236,30 @@
       </c>
       <c r="AC13" s="12">
         <f t="shared" si="14"/>
-        <v>8817.1653653686499</v>
+        <v>-4374.3310232884887</v>
       </c>
       <c r="AD13" s="12">
         <f t="shared" si="15"/>
-        <v>14272.252416897036</v>
+        <v>1080.7560282398995</v>
       </c>
       <c r="AE13" s="12">
         <f t="shared" si="16"/>
-        <v>109334.60980983815</v>
+        <v>96143.113421181028</v>
       </c>
       <c r="AF13" s="12">
         <f t="shared" si="17"/>
-        <v>7488.0924985352103</v>
+        <v>-5703.4038901219283</v>
       </c>
       <c r="AG13" s="12">
         <f t="shared" si="18"/>
-        <v>12396.409066872626</v>
+        <v>-795.08732178451146</v>
       </c>
       <c r="AH13" s="12">
         <f t="shared" si="19"/>
-        <v>97961.783759465936</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+        <v>84770.287370808801</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>2030</v>
       </c>
@@ -18360,31 +18315,31 @@
       </c>
       <c r="U14" s="7">
         <f>OPEX!$B$15</f>
-        <v>12451.598195532202</v>
+        <v>50088.476920599649</v>
       </c>
       <c r="V14" s="11">
         <f t="shared" si="8"/>
-        <v>37780.401804467794</v>
+        <v>143.52307940035098</v>
       </c>
       <c r="W14" s="11">
         <f t="shared" si="9"/>
-        <v>59764.401804467794</v>
+        <v>22127.523079400351</v>
       </c>
       <c r="X14" s="11">
         <f t="shared" si="1"/>
-        <v>312400.40180446778</v>
+        <v>274763.52307940036</v>
       </c>
       <c r="Y14" s="11">
         <f t="shared" si="10"/>
-        <v>32740.401804467798</v>
+        <v>-4896.476920599649</v>
       </c>
       <c r="Z14" s="11">
         <f t="shared" si="11"/>
-        <v>52528.401804467794</v>
+        <v>14891.523079400351</v>
       </c>
       <c r="AA14" s="11">
         <f t="shared" si="12"/>
-        <v>279880.40180446778</v>
+        <v>242243.52307940036</v>
       </c>
       <c r="AB14" s="11">
         <f t="shared" si="13"/>
@@ -18392,30 +18347,30 @@
       </c>
       <c r="AC14" s="12">
         <f t="shared" si="14"/>
-        <v>12038.000320383404</v>
+        <v>45.730876149642263</v>
       </c>
       <c r="AD14" s="12">
         <f t="shared" si="15"/>
-        <v>19042.780216927884</v>
+        <v>7050.5107726941205</v>
       </c>
       <c r="AE14" s="12">
         <f t="shared" si="16"/>
-        <v>99540.39548000152</v>
+        <v>87548.126035767767</v>
       </c>
       <c r="AF14" s="12">
         <f t="shared" si="17"/>
-        <v>10432.100999123208</v>
+        <v>-1560.1684451105548</v>
       </c>
       <c r="AG14" s="12">
         <f t="shared" si="18"/>
-        <v>16737.167619975742</v>
+        <v>4744.8981757419806</v>
       </c>
       <c r="AH14" s="12">
         <f t="shared" si="19"/>
-        <v>89178.521288060729</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+        <v>77186.251843826962</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2031</v>
       </c>
@@ -18471,31 +18426,31 @@
       </c>
       <c r="U15" s="7">
         <f>OPEX!$B$15</f>
-        <v>12451.598195532202</v>
+        <v>50088.476920599649</v>
       </c>
       <c r="V15" s="11">
         <f t="shared" si="8"/>
-        <v>53860.401804467794</v>
+        <v>16223.523079400351</v>
       </c>
       <c r="W15" s="11">
         <f t="shared" si="9"/>
-        <v>83884.401804467794</v>
+        <v>46247.523079400351</v>
       </c>
       <c r="X15" s="11">
         <f t="shared" si="1"/>
-        <v>312484.40180446778</v>
+        <v>274847.52307940036</v>
       </c>
       <c r="Y15" s="11">
         <f t="shared" si="10"/>
-        <v>47224.401804467794</v>
+        <v>9587.523079400351</v>
       </c>
       <c r="Z15" s="11">
         <f t="shared" si="11"/>
-        <v>74224.401804467794</v>
+        <v>36587.523079400351</v>
       </c>
       <c r="AA15" s="11">
         <f t="shared" si="12"/>
-        <v>279964.40180446778</v>
+        <v>242327.52307940036</v>
       </c>
       <c r="AB15" s="11">
         <f t="shared" si="13"/>
@@ -18503,30 +18458,30 @@
       </c>
       <c r="AC15" s="12">
         <f t="shared" si="14"/>
-        <v>15601.439881059943</v>
+        <v>4699.3767499383421</v>
       </c>
       <c r="AD15" s="12">
         <f t="shared" si="15"/>
-        <v>24298.323218274258</v>
+        <v>13396.260087152656</v>
       </c>
       <c r="AE15" s="12">
         <f t="shared" si="16"/>
-        <v>90515.600426081088</v>
+        <v>79613.537294959489</v>
       </c>
       <c r="AF15" s="12">
         <f t="shared" si="17"/>
-        <v>13679.227057127284</v>
+        <v>2777.1639260056818</v>
       </c>
       <c r="AG15" s="12">
         <f t="shared" si="18"/>
-        <v>21500.165310017856</v>
+        <v>10598.102178896252</v>
       </c>
       <c r="AH15" s="12">
         <f t="shared" si="19"/>
-        <v>81095.714797043998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+        <v>70193.6516659224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2032</v>
       </c>
@@ -18582,31 +18537,31 @@
       </c>
       <c r="U16" s="7">
         <f>OPEX!$B$15</f>
-        <v>12451.598195532202</v>
+        <v>50088.476920599649</v>
       </c>
       <c r="V16" s="11">
         <f t="shared" si="8"/>
-        <v>73852.401804467794</v>
+        <v>36215.523079400351</v>
       </c>
       <c r="W16" s="11">
         <f t="shared" si="9"/>
-        <v>112912.40180446779</v>
+        <v>75275.523079400358</v>
       </c>
       <c r="X16" s="11">
         <f t="shared" si="1"/>
-        <v>312520.40180446778</v>
+        <v>274883.52307940036</v>
       </c>
       <c r="Y16" s="11">
         <f t="shared" si="10"/>
-        <v>65188.401804467794</v>
+        <v>27551.523079400351</v>
       </c>
       <c r="Z16" s="11">
         <f t="shared" si="11"/>
-        <v>100336.40180446779</v>
+        <v>62699.523079400351</v>
       </c>
       <c r="AA16" s="11">
         <f t="shared" si="12"/>
-        <v>279988.40180446778</v>
+        <v>242351.52307940036</v>
       </c>
       <c r="AB16" s="11">
         <f t="shared" si="13"/>
@@ -18614,30 +18569,30 @@
       </c>
       <c r="AC16" s="12">
         <f t="shared" si="14"/>
-        <v>19447.64560068709</v>
+        <v>9536.6791178492731</v>
       </c>
       <c r="AD16" s="12">
         <f t="shared" si="15"/>
-        <v>29733.364393882566</v>
+        <v>19822.397911044751</v>
       </c>
       <c r="AE16" s="12">
         <f t="shared" si="16"/>
-        <v>82296.389403410518</v>
+        <v>72385.422920572717</v>
       </c>
       <c r="AF16" s="12">
         <f t="shared" si="17"/>
-        <v>17166.143613379216</v>
+        <v>7255.1771305413986</v>
       </c>
       <c r="AG16" s="12">
         <f t="shared" si="18"/>
-        <v>26421.710539729305</v>
+        <v>16510.74405689149</v>
       </c>
       <c r="AH16" s="12">
         <f t="shared" si="19"/>
-        <v>73729.697038325132</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+        <v>63818.730555487324</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>2033</v>
       </c>
@@ -18693,31 +18648,31 @@
       </c>
       <c r="U17" s="7">
         <f>OPEX!$B$15</f>
-        <v>12451.598195532202</v>
+        <v>50088.476920599649</v>
       </c>
       <c r="V17" s="11">
         <f t="shared" si="8"/>
-        <v>97888.401804467794</v>
+        <v>60251.523079400351</v>
       </c>
       <c r="W17" s="11">
         <f t="shared" si="9"/>
-        <v>145936.40180446781</v>
+        <v>108299.52307940036</v>
       </c>
       <c r="X17" s="11">
         <f t="shared" si="1"/>
-        <v>312544.40180446778</v>
+        <v>274907.52307940036</v>
       </c>
       <c r="Y17" s="11">
         <f t="shared" si="10"/>
-        <v>86824.401804467794</v>
+        <v>49187.523079400351</v>
       </c>
       <c r="Z17" s="11">
         <f t="shared" si="11"/>
-        <v>130096.40180446779</v>
+        <v>92459.523079400358</v>
       </c>
       <c r="AA17" s="11">
         <f t="shared" si="12"/>
-        <v>280012.40180446778</v>
+        <v>242375.52307940036</v>
       </c>
       <c r="AB17" s="11">
         <f t="shared" si="13"/>
@@ -18725,30 +18680,30 @@
       </c>
       <c r="AC17" s="12">
         <f t="shared" si="14"/>
-        <v>23433.705117443656</v>
+        <v>14423.735587591096</v>
       </c>
       <c r="AD17" s="12">
         <f t="shared" si="15"/>
-        <v>34936.014305533223</v>
+        <v>25926.044775680661</v>
       </c>
       <c r="AE17" s="12">
         <f t="shared" si="16"/>
-        <v>74820.644866830786</v>
+        <v>65810.675336978238</v>
       </c>
       <c r="AF17" s="12">
         <f t="shared" si="17"/>
-        <v>20785.071483223233</v>
+        <v>11775.101953370673</v>
       </c>
       <c r="AG17" s="12">
         <f t="shared" si="18"/>
-        <v>31144.04424352567</v>
+        <v>22134.074713673112</v>
       </c>
       <c r="AH17" s="12">
         <f t="shared" si="19"/>
-        <v>67032.742716753171</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+        <v>58022.773186900609</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>2034</v>
       </c>
@@ -18804,31 +18759,31 @@
       </c>
       <c r="U18" s="7">
         <f>OPEX!$B$15</f>
-        <v>12451.598195532202</v>
+        <v>50088.476920599649</v>
       </c>
       <c r="V18" s="11">
         <f t="shared" si="8"/>
-        <v>125536.40180446779</v>
+        <v>87899.523079400358</v>
       </c>
       <c r="W18" s="11">
         <f t="shared" si="9"/>
-        <v>180796.40180446781</v>
+        <v>143159.52307940036</v>
       </c>
       <c r="X18" s="11">
         <f t="shared" si="1"/>
-        <v>312556.40180446778</v>
+        <v>274919.52307940036</v>
       </c>
       <c r="Y18" s="11">
         <f t="shared" si="10"/>
-        <v>111712.40180446779</v>
+        <v>74075.523079400358</v>
       </c>
       <c r="Z18" s="11">
         <f t="shared" si="11"/>
-        <v>161464.40180446781</v>
+        <v>123827.52307940036</v>
       </c>
       <c r="AA18" s="11">
         <f t="shared" si="12"/>
-        <v>280024.40180446778</v>
+        <v>242387.52307940036</v>
       </c>
       <c r="AB18" s="11">
         <f t="shared" si="13"/>
@@ -18836,30 +18791,30 @@
       </c>
       <c r="AC18" s="12">
         <f t="shared" si="14"/>
-        <v>27320.378634911169</v>
+        <v>19129.497244136117</v>
       </c>
       <c r="AD18" s="12">
         <f t="shared" si="15"/>
-        <v>39346.564678674782</v>
+        <v>31155.683287899723</v>
       </c>
       <c r="AE18" s="12">
         <f t="shared" si="16"/>
-        <v>68021.379610384742</v>
+        <v>59830.498219609697</v>
       </c>
       <c r="AF18" s="12">
         <f t="shared" si="17"/>
-        <v>24311.873461748157</v>
+        <v>16120.992070973101</v>
       </c>
       <c r="AG18" s="12">
         <f t="shared" si="18"/>
-        <v>35139.358225579628</v>
+        <v>26948.476834804573</v>
       </c>
       <c r="AH18" s="12">
         <f t="shared" si="19"/>
-        <v>60941.468564859635</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+        <v>52750.587174084583</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2035</v>
       </c>
@@ -18906,31 +18861,31 @@
       </c>
       <c r="U19" s="7">
         <f>OPEX!$B$15</f>
-        <v>12451.598195532202</v>
+        <v>50088.476920599649</v>
       </c>
       <c r="V19" s="11">
         <f t="shared" si="8"/>
-        <v>155620.40180446781</v>
+        <v>117983.52307940036</v>
       </c>
       <c r="W19" s="11">
         <f t="shared" si="9"/>
-        <v>214396.40180446781</v>
+        <v>176759.52307940036</v>
       </c>
       <c r="X19" s="11">
         <f t="shared" si="1"/>
-        <v>312568.40180446778</v>
+        <v>274931.52307940036</v>
       </c>
       <c r="Y19" s="11">
         <f t="shared" si="10"/>
-        <v>138808.40180446781</v>
+        <v>101171.52307940036</v>
       </c>
       <c r="Z19" s="11">
         <f t="shared" si="11"/>
-        <v>191668.40180446781</v>
+        <v>154031.52307940036</v>
       </c>
       <c r="AA19" s="11">
         <f t="shared" si="12"/>
-        <v>280036.40180446778</v>
+        <v>242399.52307940036</v>
       </c>
       <c r="AB19" s="11">
         <f t="shared" si="13"/>
@@ -18938,30 +18893,30 @@
       </c>
       <c r="AC19" s="12">
         <f t="shared" si="14"/>
-        <v>30788.666869110908</v>
+        <v>23342.411059315404</v>
       </c>
       <c r="AD19" s="12">
         <f t="shared" si="15"/>
-        <v>42417.185128385245</v>
+        <v>34970.92931858974</v>
       </c>
       <c r="AE19" s="12">
         <f t="shared" si="16"/>
-        <v>61839.991963649292</v>
+        <v>54393.736153853795</v>
       </c>
       <c r="AF19" s="12">
         <f t="shared" si="17"/>
-        <v>27462.502295561837</v>
+        <v>20016.246485766333</v>
       </c>
       <c r="AG19" s="12">
         <f t="shared" si="18"/>
-        <v>37920.571493622978</v>
+        <v>30474.31568382747</v>
       </c>
       <c r="AH19" s="12">
         <f t="shared" si="19"/>
-        <v>55403.709194990101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+        <v>47957.453385194603</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>2036</v>
       </c>
@@ -19008,31 +18963,31 @@
       </c>
       <c r="U20" s="7">
         <f>OPEX!$B$15</f>
-        <v>12451.598195532202</v>
+        <v>50088.476920599649</v>
       </c>
       <c r="V20" s="11">
         <f t="shared" si="8"/>
-        <v>186376.40180446781</v>
+        <v>148739.52307940036</v>
       </c>
       <c r="W20" s="11">
         <f t="shared" si="9"/>
-        <v>243772.40180446781</v>
+        <v>206135.52307940036</v>
       </c>
       <c r="X20" s="11">
         <f t="shared" si="1"/>
-        <v>312568.40180446778</v>
+        <v>274931.52307940036</v>
       </c>
       <c r="Y20" s="11">
         <f t="shared" si="10"/>
-        <v>166480.40180446781</v>
+        <v>128843.52307940036</v>
       </c>
       <c r="Z20" s="11">
         <f t="shared" si="11"/>
-        <v>218116.40180446781</v>
+        <v>180479.52307940036</v>
       </c>
       <c r="AA20" s="11">
         <f t="shared" si="12"/>
-        <v>280036.40180446778</v>
+        <v>242399.52307940036</v>
       </c>
       <c r="AB20" s="11">
         <f t="shared" si="13"/>
@@ -19040,30 +18995,30 @@
       </c>
       <c r="AC20" s="12">
         <f t="shared" si="14"/>
-        <v>33521.434096184959</v>
+        <v>26752.110632734504</v>
       </c>
       <c r="AD20" s="12">
         <f t="shared" si="15"/>
-        <v>43844.609201814186</v>
+        <v>37075.285738363731</v>
       </c>
       <c r="AE20" s="12">
         <f t="shared" si="16"/>
-        <v>56218.174512408441</v>
+        <v>49448.851048957993</v>
       </c>
       <c r="AF20" s="12">
         <f t="shared" si="17"/>
-        <v>29942.963612151249</v>
+        <v>23173.640148700786</v>
       </c>
       <c r="AG20" s="12">
         <f t="shared" si="18"/>
-        <v>39230.1520879034</v>
+        <v>32460.828624452944</v>
       </c>
       <c r="AH20" s="12">
         <f t="shared" si="19"/>
-        <v>50367.008359081905</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+        <v>43597.68489563145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>2037</v>
       </c>
@@ -19110,31 +19065,31 @@
       </c>
       <c r="U21" s="7">
         <f>OPEX!$B$15</f>
-        <v>12451.598195532202</v>
+        <v>50088.476920599649</v>
       </c>
       <c r="V21" s="11">
         <f t="shared" si="8"/>
-        <v>215632.40180446781</v>
+        <v>177995.52307940036</v>
       </c>
       <c r="W21" s="11">
         <f t="shared" si="9"/>
-        <v>267028.40180446778</v>
+        <v>229391.52307940036</v>
       </c>
       <c r="X21" s="11">
         <f t="shared" si="1"/>
-        <v>312568.40180446778</v>
+        <v>274931.52307940036</v>
       </c>
       <c r="Y21" s="11">
         <f t="shared" si="10"/>
-        <v>192808.40180446781</v>
+        <v>155171.52307940036</v>
       </c>
       <c r="Z21" s="11">
         <f t="shared" si="11"/>
-        <v>239080.40180446781</v>
+        <v>201443.52307940036</v>
       </c>
       <c r="AA21" s="11">
         <f t="shared" si="12"/>
-        <v>280036.40180446778</v>
+        <v>242399.52307940036</v>
       </c>
       <c r="AB21" s="11">
         <f t="shared" si="13"/>
@@ -19142,30 +19097,30 @@
       </c>
       <c r="AC21" s="12">
         <f t="shared" si="14"/>
-        <v>35257.620776153548</v>
+        <v>29103.690354834955</v>
       </c>
       <c r="AD21" s="12">
         <f t="shared" si="15"/>
-        <v>43661.277472675312</v>
+        <v>37507.347051356715</v>
       </c>
       <c r="AE21" s="12">
         <f t="shared" si="16"/>
-        <v>51107.431374916756</v>
+        <v>44953.500953598159</v>
       </c>
       <c r="AF21" s="12">
         <f t="shared" si="17"/>
-        <v>31525.714393528197</v>
+        <v>25371.7839722096</v>
       </c>
       <c r="AG21" s="12">
         <f t="shared" si="18"/>
-        <v>39091.556145054681</v>
+        <v>32937.625723736084</v>
       </c>
       <c r="AH21" s="12">
         <f t="shared" si="19"/>
-        <v>45788.189417347174</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
+        <v>39634.258996028584</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>2038</v>
       </c>
@@ -19212,31 +19167,31 @@
       </c>
       <c r="U22" s="7">
         <f>OPEX!$B$15</f>
-        <v>12451.598195532202</v>
+        <v>50088.476920599649</v>
       </c>
       <c r="V22" s="11">
         <f t="shared" si="8"/>
-        <v>241420.40180446781</v>
+        <v>203783.52307940036</v>
       </c>
       <c r="W22" s="11">
         <f t="shared" si="9"/>
-        <v>283828.40180446778</v>
+        <v>246191.52307940036</v>
       </c>
       <c r="X22" s="11">
         <f t="shared" si="1"/>
-        <v>312568.40180446778</v>
+        <v>274931.52307940036</v>
       </c>
       <c r="Y22" s="11">
         <f t="shared" si="10"/>
-        <v>216028.40180446781</v>
+        <v>178391.52307940036</v>
       </c>
       <c r="Z22" s="11">
         <f t="shared" si="11"/>
-        <v>254176.40180446781</v>
+        <v>216539.52307940036</v>
       </c>
       <c r="AA22" s="11">
         <f t="shared" si="12"/>
-        <v>280036.40180446778</v>
+        <v>242399.52307940036</v>
       </c>
       <c r="AB22" s="11">
         <f t="shared" si="13"/>
@@ -19244,30 +19199,30 @@
       </c>
       <c r="AC22" s="12">
         <f t="shared" si="14"/>
-        <v>35885.604403262572</v>
+        <v>30291.122202063849</v>
       </c>
       <c r="AD22" s="12">
         <f t="shared" si="15"/>
-        <v>42189.283380510446</v>
+        <v>36594.801179311726</v>
       </c>
       <c r="AE22" s="12">
         <f t="shared" si="16"/>
-        <v>46461.301249924327</v>
+        <v>40866.819048725607</v>
       </c>
       <c r="AF22" s="12">
         <f t="shared" si="17"/>
-        <v>32111.245400473523</v>
+        <v>26516.763199274796</v>
       </c>
       <c r="AG22" s="12">
         <f t="shared" si="18"/>
-        <v>37781.70252233855</v>
+        <v>32187.220321139823</v>
       </c>
       <c r="AH22" s="12">
         <f t="shared" si="19"/>
-        <v>41625.626743042892</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
+        <v>36031.144541844173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="J25" s="3">
         <v>29262</v>
       </c>
@@ -19278,7 +19233,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>81</v>
       </c>
@@ -19286,7 +19241,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -19309,7 +19264,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>2018</v>
       </c>
@@ -19344,7 +19299,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>2019</v>
       </c>
@@ -19379,7 +19334,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2020</v>
       </c>
@@ -19408,7 +19363,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>2021</v>
       </c>
@@ -19437,7 +19392,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>2022</v>
       </c>
@@ -19466,7 +19421,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>2023</v>
       </c>
@@ -19495,7 +19450,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>2024</v>
       </c>
@@ -19538,7 +19493,7 @@
       <c r="AC35" s="10"/>
       <c r="AD35" s="10"/>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>2025</v>
       </c>
@@ -19567,7 +19522,7 @@
         <v>7008</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>2026</v>
       </c>
@@ -19596,7 +19551,7 @@
         <v>11517</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>2027</v>
       </c>
@@ -19625,7 +19580,7 @@
         <v>16335</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>2028</v>
       </c>
@@ -19654,7 +19609,7 @@
         <v>19227</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>2029</v>
       </c>
@@ -19683,7 +19638,7 @@
         <v>19847</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2030</v>
       </c>
@@ -19712,7 +19667,7 @@
         <v>19876</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2031</v>
       </c>
@@ -19741,7 +19696,7 @@
         <v>19880</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2032</v>
       </c>
@@ -19770,7 +19725,7 @@
         <v>19882</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2033</v>
       </c>
@@ -19799,7 +19754,7 @@
         <v>19884</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2034</v>
       </c>
@@ -19828,7 +19783,7 @@
         <v>19885</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2035</v>
       </c>
@@ -19857,7 +19812,7 @@
         <v>19886</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>2036</v>
       </c>
@@ -19886,7 +19841,7 @@
         <v>19886</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>2037</v>
       </c>
@@ -19915,7 +19870,7 @@
         <v>19886</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>2038</v>
       </c>
@@ -19944,12 +19899,12 @@
         <v>19886</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>24</v>
       </c>
@@ -19972,7 +19927,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>2018</v>
       </c>
@@ -20001,7 +19956,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>2019</v>
       </c>
@@ -20030,7 +19985,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>2020</v>
       </c>
@@ -20059,7 +20014,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>2021</v>
       </c>
@@ -20088,7 +20043,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>2022</v>
       </c>
@@ -20117,7 +20072,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>2023</v>
       </c>
@@ -20146,7 +20101,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>2024</v>
       </c>
@@ -20175,7 +20130,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>2025</v>
       </c>
@@ -20204,7 +20159,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>2026</v>
       </c>
@@ -20233,7 +20188,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>2027</v>
       </c>
@@ -20262,7 +20217,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>2028</v>
       </c>
@@ -20291,7 +20246,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>2029</v>
       </c>
@@ -20320,7 +20275,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>2030</v>
       </c>
@@ -20349,7 +20304,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>2031</v>
       </c>
@@ -20378,7 +20333,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>2032</v>
       </c>
@@ -20407,7 +20362,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>2033</v>
       </c>
@@ -20436,7 +20391,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>2034</v>
       </c>
@@ -20465,7 +20420,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>2035</v>
       </c>
@@ -20494,7 +20449,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>2036</v>
       </c>
@@ -20523,7 +20478,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>2037</v>
       </c>
@@ -20552,7 +20507,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>2038</v>
       </c>
@@ -20599,9 +20554,9 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="19" max="19" width="14.88671875" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
@@ -22051,7 +22006,7 @@
       <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -23500,7 +23455,7 @@
       <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -24949,7 +24904,7 @@
       <selection sqref="A1:U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -26398,7 +26353,7 @@
       <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -27847,7 +27802,7 @@
       <selection sqref="A1:U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">

--- a/tumlknexpectimax/excel_data/input_data_business_munich_rokkas.xlsx
+++ b/tumlknexpectimax/excel_data/input_data_business_munich_rokkas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="645" windowWidth="13680" windowHeight="11250" tabRatio="847" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="645" windowWidth="13680" windowHeight="11250" tabRatio="847" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CAPEX" sheetId="1" r:id="rId1"/>
@@ -1247,7 +1247,7 @@
                   <c:v>75260</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>381282</c:v>
+                  <c:v>216582</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>78082</c:v>
@@ -1280,11 +1280,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="164542976"/>
-        <c:axId val="167624000"/>
+        <c:axId val="62081536"/>
+        <c:axId val="61535296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="164542976"/>
+        <c:axId val="62081536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1313,7 +1313,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167624000"/>
+        <c:crossAx val="61535296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1321,7 +1321,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="167624000"/>
+        <c:axId val="61535296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1351,7 +1351,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164542976"/>
+        <c:crossAx val="62081536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1485,7 +1485,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>20000</c:v>
+                  <c:v>36062.342937580564</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>19283.042118970367</c:v>
@@ -1544,11 +1544,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="168188416"/>
-        <c:axId val="193840256"/>
+        <c:axId val="62174720"/>
+        <c:axId val="61537600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="168188416"/>
+        <c:axId val="62174720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1558,7 +1558,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193840256"/>
+        <c:crossAx val="61537600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1566,7 +1566,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="193840256"/>
+        <c:axId val="61537600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1596,7 +1596,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168188416"/>
+        <c:crossAx val="62174720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1925,11 +1925,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="163967488"/>
-        <c:axId val="193841984"/>
+        <c:axId val="63067648"/>
+        <c:axId val="62039168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="163967488"/>
+        <c:axId val="63067648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1949,7 +1949,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193841984"/>
+        <c:crossAx val="62039168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1957,7 +1957,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="193841984"/>
+        <c:axId val="62039168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1980,7 +1980,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1997,7 +1996,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163967488"/>
+        <c:crossAx val="63067648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2579,11 +2578,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="163969024"/>
-        <c:axId val="193844288"/>
+        <c:axId val="63203840"/>
+        <c:axId val="62041472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="163969024"/>
+        <c:axId val="63203840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2593,7 +2592,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193844288"/>
+        <c:crossAx val="62041472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2601,7 +2600,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="193844288"/>
+        <c:axId val="62041472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2612,7 +2611,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163969024"/>
+        <c:crossAx val="63203840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3086,8 +3085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y46"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+    <sheetView topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3224,7 +3223,7 @@
       </c>
       <c r="X2" s="13"/>
     </row>
-    <row r="3" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>73</v>
       </c>
@@ -3303,7 +3302,7 @@
         <v>503426.06612425408</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>66</v>
       </c>
@@ -3381,7 +3380,7 @@
         <v>201494.37463352116</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>67</v>
       </c>
@@ -3455,7 +3454,7 @@
         <v>162537.48553270852</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>68</v>
       </c>
@@ -3533,7 +3532,7 @@
         <v>317045.48553270852</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>69</v>
       </c>
@@ -3611,7 +3610,7 @@
         <v>327962.37463352119</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>70</v>
       </c>
@@ -3687,7 +3686,7 @@
         <v>521198.06612425408</v>
       </c>
     </row>
-    <row r="9" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>71</v>
       </c>
@@ -3763,7 +3762,7 @@
         <v>207956.37463352116</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>72</v>
       </c>
@@ -3838,7 +3837,7 @@
         <v>175537.48553270852</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>74</v>
       </c>
@@ -3904,18 +3903,18 @@
         <v>8632</v>
       </c>
       <c r="V11" s="11">
-        <v>381282</v>
+        <v>216582</v>
       </c>
       <c r="W11" s="11">
         <f t="shared" si="1"/>
-        <v>389914</v>
+        <v>225214</v>
       </c>
       <c r="X11" s="12">
         <f t="shared" si="0"/>
-        <v>482341.51949214807</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>317641.51949214807</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>75</v>
       </c>
@@ -3991,7 +3990,7 @@
         <v>190053.9800377739</v>
       </c>
     </row>
-    <row r="13" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>76</v>
       </c>
@@ -4068,7 +4067,7 @@
         <v>344948.66003777389</v>
       </c>
     </row>
-    <row r="14" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>77</v>
       </c>
@@ -4144,7 +4143,7 @@
         <v>337587.51949214807</v>
       </c>
     </row>
-    <row r="15" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>78</v>
       </c>
@@ -4227,7 +4226,7 @@
         <v>2.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="42" spans="18:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="18:25" ht="14.45" x14ac:dyDescent="0.3">
       <c r="R42" s="5" t="s">
         <v>52</v>
       </c>
@@ -4241,12 +4240,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="18:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="18:25" ht="14.45" x14ac:dyDescent="0.3">
       <c r="S43" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="18:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="18:25" ht="14.45" x14ac:dyDescent="0.3">
       <c r="R44" t="s">
         <v>55</v>
       </c>
@@ -4266,7 +4265,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="18:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="18:25" ht="14.45" x14ac:dyDescent="0.3">
       <c r="S45" t="s">
         <v>57</v>
       </c>
@@ -4277,7 +4276,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="18:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="18:25" ht="14.45" x14ac:dyDescent="0.3">
       <c r="R46" t="s">
         <v>60</v>
       </c>
@@ -15905,7 +15904,7 @@
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16015,7 +16014,7 @@
       </c>
       <c r="K2">
         <f>CAPEX!$X11</f>
-        <v>482341.51949214807</v>
+        <v>317641.51949214807</v>
       </c>
       <c r="L2">
         <f>CAPEX!$X12</f>
@@ -16462,11 +16461,11 @@
       </c>
       <c r="M11">
         <f>IF(M2-K2&gt;=0,M2-K2,0)</f>
-        <v>0</v>
+        <v>27307.140545625822</v>
       </c>
       <c r="N11">
         <f>IF(N2-K2&gt;=0,N2-K2,0)</f>
-        <v>0</v>
+        <v>19946</v>
       </c>
       <c r="O11">
         <f>O2-L2+L11</f>
@@ -16695,8 +16694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16706,7 +16705,7 @@
     <col min="3" max="3" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>22</v>
       </c>
@@ -16714,15 +16713,16 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="12">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <f>AVERAGE(B3:B15)</f>
+        <v>36062.342937580564</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>73</v>
       </c>
@@ -16730,7 +16730,7 @@
         <v>19283.042118970367</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>66</v>
       </c>
@@ -16738,7 +16738,7 @@
         <v>43709.823692218881</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>67</v>
       </c>
@@ -16746,7 +16746,7 @@
         <v>44248.4220525376</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>68</v>
       </c>
@@ -16754,7 +16754,7 @@
         <v>10540.776519765759</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>69</v>
       </c>
@@ -16762,7 +16762,7 @@
         <v>11938.918689039821</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>70</v>
       </c>
@@ -16770,7 +16770,7 @@
         <v>50983.71612182937</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>71</v>
       </c>
@@ -16778,7 +16778,7 @@
         <v>47726.863400003029</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>72</v>
       </c>
@@ -16786,7 +16786,7 @@
         <v>48220.289169209609</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>74</v>
       </c>
@@ -16794,7 +16794,7 @@
         <v>37682.867713520049</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>75</v>
       </c>
@@ -16802,7 +16802,7 @@
         <v>44827.8721002112</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>76</v>
       </c>
@@ -16810,7 +16810,7 @@
         <v>12139.814930199653</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>77</v>
       </c>
@@ -16818,7 +16818,7 @@
         <v>47419.574760442287</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>78</v>
       </c>
@@ -16840,7 +16840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
@@ -19638,7 +19638,7 @@
         <v>19847</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>2030</v>
       </c>
@@ -19667,7 +19667,7 @@
         <v>19876</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>2031</v>
       </c>
@@ -19696,7 +19696,7 @@
         <v>19880</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>2032</v>
       </c>
@@ -19725,7 +19725,7 @@
         <v>19882</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>2033</v>
       </c>
@@ -19754,7 +19754,7 @@
         <v>19884</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>2034</v>
       </c>
@@ -19783,7 +19783,7 @@
         <v>19885</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>2035</v>
       </c>

--- a/tumlknexpectimax/excel_data/input_data_business_munich_rokkas.xlsx
+++ b/tumlknexpectimax/excel_data/input_data_business_munich_rokkas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="645" windowWidth="13680" windowHeight="11250" tabRatio="847" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="705" windowWidth="13680" windowHeight="11190" tabRatio="847" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CAPEX" sheetId="1" r:id="rId1"/>
@@ -875,7 +875,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>108181.99766751831</c:v>
+                  <c:v>60163.214483090531</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>108181.99766751831</c:v>
@@ -890,7 +890,7 @@
                   <c:v>108181.99766751831</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>108181.99766751831</c:v>
+                  <c:v>60163.214483090531</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>108181.99766751831</c:v>
@@ -991,7 +991,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>5652.0684567357575</c:v>
+                  <c:v>1539.8347599557078</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3844.3769660028456</c:v>
@@ -1006,7 +1006,7 @@
                   <c:v>3844.3769660028456</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5652.0684567357575</c:v>
+                  <c:v>1539.8347599557078</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>3844.3769660028456</c:v>
@@ -1021,13 +1021,13 @@
                   <c:v>3663.5010909611156</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7526.1810909611158</c:v>
+                  <c:v>16649.727205824103</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>3778.2685110852781</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3663.5010909611156</c:v>
+                  <c:v>1452.7127519276221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1116,7 +1116,7 @@
                   <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16000</c:v>
+                  <c:v>109000</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>19368</c:v>
@@ -1232,7 +1232,7 @@
                   <c:v>75260</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>229768</c:v>
+                  <c:v>211820</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>196568</c:v>
@@ -1253,7 +1253,7 @@
                   <c:v>78082</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>213082</c:v>
+                  <c:v>153082</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>219632</c:v>
@@ -1280,11 +1280,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="62081536"/>
-        <c:axId val="61535296"/>
+        <c:axId val="175437824"/>
+        <c:axId val="81537856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62081536"/>
+        <c:axId val="175437824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1313,7 +1313,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61535296"/>
+        <c:crossAx val="81537856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1321,7 +1321,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61535296"/>
+        <c:axId val="81537856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1351,7 +1351,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62081536"/>
+        <c:crossAx val="175437824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1485,46 +1485,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>36062.342937580564</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19283.042118970367</c:v>
+                  <c:v>19283.042119999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43709.823692218881</c:v>
+                  <c:v>43709.823689999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44248.4220525376</c:v>
+                  <c:v>44248.422050000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10540.776519765759</c:v>
+                  <c:v>19212.762709999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11938.918689039821</c:v>
+                  <c:v>11938.91869</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50983.71612182937</c:v>
+                  <c:v>50983.716119999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>47726.863400003029</c:v>
+                  <c:v>47726.863400000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48220.289169209609</c:v>
+                  <c:v>48220.289169999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37682.867713520049</c:v>
+                  <c:v>37682.867709999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44827.8721002112</c:v>
+                  <c:v>44827.872100000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12139.814930199653</c:v>
+                  <c:v>12139.81493</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>47419.574760442287</c:v>
+                  <c:v>47419.574760000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50088.476920599649</c:v>
+                  <c:v>50088.476920000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1544,11 +1544,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="62174720"/>
-        <c:axId val="61537600"/>
+        <c:axId val="82056704"/>
+        <c:axId val="81539584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62174720"/>
+        <c:axId val="82056704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1558,7 +1558,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61537600"/>
+        <c:crossAx val="81539584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1566,7 +1566,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61537600"/>
+        <c:axId val="81539584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1596,7 +1596,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62174720"/>
+        <c:crossAx val="82056704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1925,11 +1925,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="63067648"/>
-        <c:axId val="62039168"/>
+        <c:axId val="82023936"/>
+        <c:axId val="81541312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63067648"/>
+        <c:axId val="82023936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1949,7 +1949,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62039168"/>
+        <c:crossAx val="81541312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1957,7 +1957,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62039168"/>
+        <c:axId val="81541312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1996,7 +1996,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63067648"/>
+        <c:crossAx val="82023936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2578,11 +2578,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="63203840"/>
-        <c:axId val="62041472"/>
+        <c:axId val="82151936"/>
+        <c:axId val="82510400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63203840"/>
+        <c:axId val="82151936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2592,7 +2592,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62041472"/>
+        <c:crossAx val="82510400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2600,7 +2600,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62041472"/>
+        <c:axId val="82510400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2611,7 +2611,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63203840"/>
+        <c:crossAx val="82151936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2652,7 +2652,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2693,7 +2693,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2734,7 +2734,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2775,7 +2775,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3086,7 +3086,7 @@
   <dimension ref="A1:Y46"/>
   <sheetViews>
     <sheetView topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+      <selection activeCell="S3" sqref="S3:W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3221,9 +3221,11 @@
       <c r="W2" s="13">
         <v>10000</v>
       </c>
-      <c r="X2" s="13"/>
-    </row>
-    <row r="3" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="X2" s="13">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>73</v>
       </c>
@@ -3282,10 +3284,10 @@
         <v>685372.28279667499</v>
       </c>
       <c r="S3" s="11">
-        <v>108181.99766751831</v>
+        <v>60163.214483090531</v>
       </c>
       <c r="T3" s="11">
-        <v>5652.0684567357575</v>
+        <v>1539.8347599557078</v>
       </c>
       <c r="U3" s="11">
         <v>7048</v>
@@ -3299,10 +3301,10 @@
       </c>
       <c r="X3" s="12">
         <f t="shared" ref="X3:X14" si="0">S3+T3+U3+V3</f>
-        <v>503426.06612425408</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>451295.0492430462</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>66</v>
       </c>
@@ -3380,7 +3382,7 @@
         <v>201494.37463352116</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>67</v>
       </c>
@@ -3454,7 +3456,7 @@
         <v>162537.48553270852</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>68</v>
       </c>
@@ -3518,21 +3520,21 @@
         <v>4383.6369516535042</v>
       </c>
       <c r="U6" s="11">
-        <v>16000</v>
+        <v>109000</v>
       </c>
       <c r="V6" s="11">
-        <v>229768</v>
+        <v>211820</v>
       </c>
       <c r="W6" s="11">
         <f t="shared" si="1"/>
-        <v>245768</v>
+        <v>320820</v>
       </c>
       <c r="X6" s="12">
         <f t="shared" si="0"/>
-        <v>317045.48553270852</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>392097.48553270852</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>69</v>
       </c>
@@ -3610,7 +3612,7 @@
         <v>327962.37463352119</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>70</v>
       </c>
@@ -3666,10 +3668,10 @@
         <v>685372.28279667499</v>
       </c>
       <c r="S8" s="11">
-        <v>108181.99766751831</v>
+        <v>60163.214483090531</v>
       </c>
       <c r="T8" s="11">
-        <v>5652.0684567357575</v>
+        <v>1539.8347599557078</v>
       </c>
       <c r="U8" s="11">
         <v>7404</v>
@@ -3683,10 +3685,10 @@
       </c>
       <c r="X8" s="12">
         <f t="shared" si="0"/>
-        <v>521198.06612425408</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>469067.0492430462</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>71</v>
       </c>
@@ -3762,7 +3764,7 @@
         <v>207956.37463352116</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>72</v>
       </c>
@@ -3837,7 +3839,7 @@
         <v>175537.48553270852</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>74</v>
       </c>
@@ -3914,7 +3916,7 @@
         <v>317641.51949214807</v>
       </c>
     </row>
-    <row r="12" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>75</v>
       </c>
@@ -3990,7 +3992,7 @@
         <v>190053.9800377739</v>
       </c>
     </row>
-    <row r="13" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>76</v>
       </c>
@@ -4050,24 +4052,24 @@
         <v>89276.478946812786</v>
       </c>
       <c r="T13" s="11">
-        <v>7526.1810909611158</v>
+        <v>16649.727205824103</v>
       </c>
       <c r="U13" s="11">
         <v>35064</v>
       </c>
       <c r="V13" s="11">
-        <v>213082</v>
+        <v>153082</v>
       </c>
       <c r="W13" s="11">
         <f t="shared" si="1"/>
-        <v>248146</v>
+        <v>188146</v>
       </c>
       <c r="X13" s="12">
         <f t="shared" si="0"/>
-        <v>344948.66003777389</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>294072.20615263691</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>77</v>
       </c>
@@ -4143,7 +4145,7 @@
         <v>337587.51949214807</v>
       </c>
     </row>
-    <row r="15" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>78</v>
       </c>
@@ -4203,7 +4205,7 @@
         <v>89276.478946812786</v>
       </c>
       <c r="T15" s="11">
-        <v>3663.5010909611156</v>
+        <v>1452.7127519276221</v>
       </c>
       <c r="U15" s="11">
         <v>35064</v>
@@ -4217,7 +4219,7 @@
       </c>
       <c r="X15" s="12">
         <f t="shared" ref="X15" si="2">SUM(S15:V15)</f>
-        <v>206085.9800377739</v>
+        <v>203875.19169874041</v>
       </c>
     </row>
     <row r="27" spans="17:17" ht="14.45" x14ac:dyDescent="0.3">
@@ -4226,7 +4228,7 @@
         <v>2.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="42" spans="18:25" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="18:25" x14ac:dyDescent="0.25">
       <c r="R42" s="5" t="s">
         <v>52</v>
       </c>
@@ -4240,12 +4242,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="18:25" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="43" spans="18:25" x14ac:dyDescent="0.25">
       <c r="S43" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="18:25" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="44" spans="18:25" x14ac:dyDescent="0.25">
       <c r="R44" t="s">
         <v>55</v>
       </c>
@@ -4265,7 +4267,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="18:25" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="45" spans="18:25" x14ac:dyDescent="0.25">
       <c r="S45" t="s">
         <v>57</v>
       </c>
@@ -4276,7 +4278,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="18:25" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="46" spans="18:25" x14ac:dyDescent="0.25">
       <c r="R46" t="s">
         <v>60</v>
       </c>
@@ -15982,7 +15984,7 @@
       </c>
       <c r="C2">
         <f>CAPEX!$X3</f>
-        <v>503426.06612425408</v>
+        <v>451295.0492430462</v>
       </c>
       <c r="D2">
         <f>CAPEX!$X4</f>
@@ -15994,7 +15996,7 @@
       </c>
       <c r="F2">
         <f>CAPEX!$X6</f>
-        <v>317045.48553270852</v>
+        <v>392097.48553270852</v>
       </c>
       <c r="G2">
         <f>CAPEX!$X7</f>
@@ -16002,7 +16004,7 @@
       </c>
       <c r="H2">
         <f>CAPEX!$X8</f>
-        <v>521198.06612425408</v>
+        <v>469067.0492430462</v>
       </c>
       <c r="I2">
         <f>CAPEX!$X9</f>
@@ -16022,7 +16024,7 @@
       </c>
       <c r="M2">
         <f>CAPEX!$X13</f>
-        <v>344948.66003777389</v>
+        <v>294072.20615263691</v>
       </c>
       <c r="N2">
         <f>CAPEX!$X14</f>
@@ -16030,7 +16032,7 @@
       </c>
       <c r="O2">
         <f>CAPEX!$X15</f>
-        <v>206085.9800377739</v>
+        <v>203875.19169874041</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -16151,7 +16153,7 @@
       </c>
       <c r="F5">
         <f>F2-E2</f>
-        <v>154508</v>
+        <v>229560</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -16391,7 +16393,7 @@
       </c>
       <c r="F10">
         <f>F2-J2</f>
-        <v>141508</v>
+        <v>216560</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -16461,7 +16463,7 @@
       </c>
       <c r="M11">
         <f>IF(M2-K2&gt;=0,M2-K2,0)</f>
-        <v>27307.140545625822</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <f>IF(N2-K2&gt;=0,N2-K2,0)</f>
@@ -16469,7 +16471,7 @@
       </c>
       <c r="O11">
         <f>O2-L2+L11</f>
-        <v>16032</v>
+        <v>13821.21166096651</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -16511,14 +16513,14 @@
       </c>
       <c r="M12">
         <f>M2-L2</f>
-        <v>154894.68</v>
+        <v>104018.22611486301</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
         <f>O2-L2</f>
-        <v>16032</v>
+        <v>13821.21166096651</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -16607,7 +16609,7 @@
       </c>
       <c r="M14">
         <f>M2-N2</f>
-        <v>7361.1405456258217</v>
+        <v>-43515.313339511165</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -16656,7 +16658,7 @@
       </c>
       <c r="M15">
         <f>M2-O2</f>
-        <v>138862.68</v>
+        <v>90197.014453896496</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -16695,7 +16697,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16713,117 +16715,116 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="12">
-        <f>AVERAGE(B3:B15)</f>
-        <v>36062.342937580564</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>73</v>
       </c>
       <c r="B3" s="12">
-        <v>19283.042118970367</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>19283.042119999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>66</v>
       </c>
       <c r="B4" s="12">
-        <v>43709.823692218881</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>43709.823689999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>67</v>
       </c>
       <c r="B5" s="12">
-        <v>44248.4220525376</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>44248.422050000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B6" s="12">
-        <v>10540.776519765759</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>19212.762709999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>69</v>
       </c>
       <c r="B7" s="12">
-        <v>11938.918689039821</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>11938.91869</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>70</v>
       </c>
       <c r="B8" s="12">
-        <v>50983.71612182937</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>50983.716119999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>71</v>
       </c>
       <c r="B9" s="12">
-        <v>47726.863400003029</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>47726.863400000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>72</v>
       </c>
       <c r="B10" s="12">
-        <v>48220.289169209609</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>48220.289169999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>74</v>
       </c>
       <c r="B11" s="12">
-        <v>37682.867713520049</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>37682.867709999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>75</v>
       </c>
       <c r="B12" s="12">
-        <v>44827.8721002112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>44827.872100000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>76</v>
       </c>
       <c r="B13" s="12">
-        <v>12139.814930199653</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>12139.81493</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>77</v>
       </c>
       <c r="B14" s="12">
-        <v>47419.574760442287</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>47419.574760000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>78</v>
       </c>
       <c r="B15" s="12">
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
     </row>
   </sheetData>
@@ -16987,31 +16988,31 @@
       </c>
       <c r="U2" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V2" s="11">
         <f>O2-U2</f>
-        <v>-48804.476920599649</v>
+        <v>-48804.476920000001</v>
       </c>
       <c r="W2" s="11">
         <f>P2-U2</f>
-        <v>-48804.476920599649</v>
+        <v>-48804.476920000001</v>
       </c>
       <c r="X2" s="11">
         <f t="shared" ref="X2:X22" si="1">Q2-U2</f>
-        <v>-48804.476920599649</v>
+        <v>-48804.476920000001</v>
       </c>
       <c r="Y2" s="11">
         <f>R2-$U2</f>
-        <v>-48948.476920599649</v>
+        <v>-48948.476920000001</v>
       </c>
       <c r="Z2" s="11">
         <f>S2-$U2</f>
-        <v>-48948.476920599649</v>
+        <v>-48948.476920000001</v>
       </c>
       <c r="AA2" s="11">
         <f>T2-$U2</f>
-        <v>-48948.476920599649</v>
+        <v>-48948.476920000001</v>
       </c>
       <c r="AB2" s="11">
         <f>1/POWER(1+$L$25,N2-2018)</f>
@@ -17019,27 +17020,27 @@
       </c>
       <c r="AC2" s="12">
         <f>V2*AB2</f>
-        <v>-48804.476920599649</v>
+        <v>-48804.476920000001</v>
       </c>
       <c r="AD2" s="12">
         <f>W2*AB2</f>
-        <v>-48804.476920599649</v>
+        <v>-48804.476920000001</v>
       </c>
       <c r="AE2" s="12">
         <f>X2*AB2</f>
-        <v>-48804.476920599649</v>
+        <v>-48804.476920000001</v>
       </c>
       <c r="AF2" s="12">
         <f>Y2*$AB2</f>
-        <v>-48948.476920599649</v>
+        <v>-48948.476920000001</v>
       </c>
       <c r="AG2" s="12">
         <f>Z2*$AB2</f>
-        <v>-48948.476920599649</v>
+        <v>-48948.476920000001</v>
       </c>
       <c r="AH2" s="12">
         <f>AA2*$AB2</f>
-        <v>-48948.476920599649</v>
+        <v>-48948.476920000001</v>
       </c>
     </row>
     <row r="3" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -17089,31 +17090,31 @@
       </c>
       <c r="U3" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V3" s="11">
         <f t="shared" ref="V3:V22" si="8">O3-U3</f>
-        <v>-48372.476920599649</v>
+        <v>-48372.476920000001</v>
       </c>
       <c r="W3" s="11">
         <f t="shared" ref="W3:W22" si="9">P3-U3</f>
-        <v>-48288.476920599649</v>
+        <v>-48288.476920000001</v>
       </c>
       <c r="X3" s="11">
         <f t="shared" si="1"/>
-        <v>-47652.476920599649</v>
+        <v>-47652.476920000001</v>
       </c>
       <c r="Y3" s="11">
         <f t="shared" ref="Y3:Y22" si="10">R3-$U3</f>
-        <v>-48552.476920599649</v>
+        <v>-48552.476920000001</v>
       </c>
       <c r="Z3" s="11">
         <f t="shared" ref="Z3:Z22" si="11">S3-$U3</f>
-        <v>-48480.476920599649</v>
+        <v>-48480.476920000001</v>
       </c>
       <c r="AA3" s="11">
         <f t="shared" ref="AA3:AA22" si="12">T3-$U3</f>
-        <v>-47928.476920599649</v>
+        <v>-47928.476920000001</v>
       </c>
       <c r="AB3" s="11">
         <f t="shared" ref="AB3:AB22" si="13">1/POWER(1+$L$25,N3-2018)</f>
@@ -17121,27 +17122,27 @@
       </c>
       <c r="AC3" s="12">
         <f t="shared" ref="AC3:AC22" si="14">V3*AB3</f>
-        <v>-43974.979018726954</v>
+        <v>-43974.979018181817</v>
       </c>
       <c r="AD3" s="12">
         <f t="shared" ref="AD3:AD22" si="15">W3*AB3</f>
-        <v>-43898.615382363314</v>
+        <v>-43898.615381818185</v>
       </c>
       <c r="AE3" s="12">
         <f t="shared" ref="AE3:AE22" si="16">X3*AB3</f>
-        <v>-43320.433564181498</v>
+        <v>-43320.433563636361</v>
       </c>
       <c r="AF3" s="12">
         <f t="shared" ref="AF3:AF22" si="17">Y3*$AB3</f>
-        <v>-44138.615382363314</v>
+        <v>-44138.615381818185</v>
       </c>
       <c r="AG3" s="12">
         <f t="shared" ref="AG3:AG22" si="18">Z3*$AB3</f>
-        <v>-44073.16083690877</v>
+        <v>-44073.160836363633</v>
       </c>
       <c r="AH3" s="12">
         <f t="shared" ref="AH3:AH22" si="19">AA3*$AB3</f>
-        <v>-43571.342655090586</v>
+        <v>-43571.342654545457</v>
       </c>
     </row>
     <row r="4" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -17200,31 +17201,31 @@
       </c>
       <c r="U4" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V4" s="11">
         <f t="shared" si="8"/>
-        <v>-47736.476920599649</v>
+        <v>-47736.476920000001</v>
       </c>
       <c r="W4" s="11">
         <f t="shared" si="9"/>
-        <v>-47616.476920599649</v>
+        <v>-47616.476920000001</v>
       </c>
       <c r="X4" s="11">
         <f t="shared" si="1"/>
-        <v>-45444.476920599649</v>
+        <v>-45444.476920000001</v>
       </c>
       <c r="Y4" s="11">
         <f t="shared" si="10"/>
-        <v>-48000.476920599649</v>
+        <v>-48000.476920000001</v>
       </c>
       <c r="Z4" s="11">
         <f t="shared" si="11"/>
-        <v>-47892.476920599649</v>
+        <v>-47892.476920000001</v>
       </c>
       <c r="AA4" s="11">
         <f t="shared" si="12"/>
-        <v>-45936.476920599649</v>
+        <v>-45936.476920000001</v>
       </c>
       <c r="AB4" s="11">
         <f t="shared" si="13"/>
@@ -17232,27 +17233,27 @@
       </c>
       <c r="AC4" s="12">
         <f t="shared" si="14"/>
-        <v>-39451.633818677394</v>
+        <v>-39451.633818181814</v>
       </c>
       <c r="AD4" s="12">
         <f t="shared" si="15"/>
-        <v>-39352.460264958383</v>
+        <v>-39352.460264462803</v>
       </c>
       <c r="AE4" s="12">
         <f t="shared" si="16"/>
-        <v>-37557.418942644334</v>
+        <v>-37557.418942148754</v>
       </c>
       <c r="AF4" s="12">
         <f t="shared" si="17"/>
-        <v>-39669.81563685921</v>
+        <v>-39669.81563636363</v>
       </c>
       <c r="AG4" s="12">
         <f t="shared" si="18"/>
-        <v>-39580.5594385121</v>
+        <v>-39580.559438016528</v>
       </c>
       <c r="AH4" s="12">
         <f t="shared" si="19"/>
-        <v>-37964.03051289227</v>
+        <v>-37964.03051239669</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -17312,31 +17313,31 @@
       </c>
       <c r="U5" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V5" s="11">
         <f t="shared" si="8"/>
-        <v>-46908.476920599649</v>
+        <v>-46908.476920000001</v>
       </c>
       <c r="W5" s="11">
         <f t="shared" si="9"/>
-        <v>-46572.476920599649</v>
+        <v>-46572.476920000001</v>
       </c>
       <c r="X5" s="11">
         <f t="shared" si="1"/>
-        <v>-41052.476920599649</v>
+        <v>-41052.476920000001</v>
       </c>
       <c r="Y5" s="11">
         <f t="shared" si="10"/>
-        <v>-47244.476920599649</v>
+        <v>-47244.476920000001</v>
       </c>
       <c r="Z5" s="11">
         <f t="shared" si="11"/>
-        <v>-46932.476920599649</v>
+        <v>-46932.476920000001</v>
       </c>
       <c r="AA5" s="11">
         <f t="shared" si="12"/>
-        <v>-41976.476920599649</v>
+        <v>-41976.476920000001</v>
       </c>
       <c r="AB5" s="11">
         <f t="shared" si="13"/>
@@ -17344,27 +17345,27 @@
       </c>
       <c r="AC5" s="12">
         <f t="shared" si="14"/>
-        <v>-35243.03299819657</v>
+        <v>-35243.032997746042</v>
       </c>
       <c r="AD5" s="12">
         <f t="shared" si="15"/>
-        <v>-34990.591225093638</v>
+        <v>-34990.591224643118</v>
       </c>
       <c r="AE5" s="12">
         <f t="shared" si="16"/>
-        <v>-30843.333524116933</v>
+        <v>-30843.333523666406</v>
       </c>
       <c r="AF5" s="12">
         <f t="shared" si="17"/>
-        <v>-35495.474771299501</v>
+        <v>-35495.474770848974</v>
       </c>
       <c r="AG5" s="12">
         <f t="shared" si="18"/>
-        <v>-35261.064553418211</v>
+        <v>-35261.064552967684</v>
       </c>
       <c r="AH5" s="12">
         <f t="shared" si="19"/>
-        <v>-31537.54840014999</v>
+        <v>-31537.548399699466</v>
       </c>
     </row>
     <row r="6" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -17424,31 +17425,31 @@
       </c>
       <c r="U6" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V6" s="11">
         <f t="shared" si="8"/>
-        <v>-45744.476920599649</v>
+        <v>-45744.476920000001</v>
       </c>
       <c r="W6" s="11">
         <f t="shared" si="9"/>
-        <v>-45132.476920599649</v>
+        <v>-45132.476920000001</v>
       </c>
       <c r="X6" s="11">
         <f t="shared" si="1"/>
-        <v>-32556.476920599649</v>
+        <v>-32556.476920000001</v>
       </c>
       <c r="Y6" s="11">
         <f t="shared" si="10"/>
-        <v>-46212.476920599649</v>
+        <v>-46212.476920000001</v>
       </c>
       <c r="Z6" s="11">
         <f t="shared" si="11"/>
-        <v>-45648.476920599649</v>
+        <v>-45648.476920000001</v>
       </c>
       <c r="AA6" s="11">
         <f t="shared" si="12"/>
-        <v>-34320.476920599649</v>
+        <v>-34320.476920000001</v>
       </c>
       <c r="AB6" s="11">
         <f t="shared" si="13"/>
@@ -17456,27 +17457,27 @@
       </c>
       <c r="AC6" s="12">
         <f t="shared" si="14"/>
-        <v>-31244.093245406486</v>
+        <v>-31244.093244996919</v>
       </c>
       <c r="AD6" s="12">
         <f t="shared" si="15"/>
-        <v>-30826.089010723063</v>
+        <v>-30826.089010313495</v>
       </c>
       <c r="AE6" s="12">
         <f t="shared" si="16"/>
-        <v>-22236.511796051938</v>
+        <v>-22236.511795642371</v>
       </c>
       <c r="AF6" s="12">
         <f t="shared" si="17"/>
-        <v>-31563.743542517339</v>
+        <v>-31563.743542107772</v>
       </c>
       <c r="AG6" s="12">
         <f t="shared" si="18"/>
-        <v>-31178.523953691441</v>
+        <v>-31178.523953281874</v>
       </c>
       <c r="AH6" s="12">
         <f t="shared" si="19"/>
-        <v>-23441.347531315922</v>
+        <v>-23441.347530906354</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -17536,31 +17537,31 @@
       </c>
       <c r="U7" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V7" s="11">
         <f t="shared" si="8"/>
-        <v>-44160.476920599649</v>
+        <v>-44160.476920000001</v>
       </c>
       <c r="W7" s="11">
         <f t="shared" si="9"/>
-        <v>-43092.476920599649</v>
+        <v>-43092.476920000001</v>
       </c>
       <c r="X7" s="11">
         <f t="shared" si="1"/>
-        <v>-16260.476920599649</v>
+        <v>-16260.476920000001</v>
       </c>
       <c r="Y7" s="11">
         <f t="shared" si="10"/>
-        <v>-44760.476920599649</v>
+        <v>-44760.476920000001</v>
       </c>
       <c r="Z7" s="11">
         <f t="shared" si="11"/>
-        <v>-43812.476920599649</v>
+        <v>-43812.476920000001</v>
       </c>
       <c r="AA7" s="11">
         <f t="shared" si="12"/>
-        <v>-19668.476920599649</v>
+        <v>-19668.476920000001</v>
       </c>
       <c r="AB7" s="11">
         <f t="shared" si="13"/>
@@ -17568,27 +17569,27 @@
       </c>
       <c r="AC7" s="12">
         <f t="shared" si="14"/>
-        <v>-27420.181756462011</v>
+        <v>-27420.181756089674</v>
       </c>
       <c r="AD7" s="12">
         <f t="shared" si="15"/>
-        <v>-26757.037783434833</v>
+        <v>-26757.037783062497</v>
       </c>
       <c r="AE7" s="12">
         <f t="shared" si="16"/>
-        <v>-10096.476843111588</v>
+        <v>-10096.476842739254</v>
       </c>
       <c r="AF7" s="12">
         <f t="shared" si="17"/>
-        <v>-27792.734550297504</v>
+        <v>-27792.734549925168</v>
       </c>
       <c r="AG7" s="12">
         <f t="shared" si="18"/>
-        <v>-27204.101136037425</v>
+        <v>-27204.101135665089</v>
       </c>
       <c r="AH7" s="12">
         <f t="shared" si="19"/>
-        <v>-12212.576712097187</v>
+        <v>-12212.576711724852</v>
       </c>
     </row>
     <row r="8" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -17648,31 +17649,31 @@
       </c>
       <c r="U8" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V8" s="11">
         <f t="shared" si="8"/>
-        <v>-41976.476920599649</v>
+        <v>-41976.476920000001</v>
       </c>
       <c r="W8" s="11">
         <f t="shared" si="9"/>
-        <v>-40176.476920599649</v>
+        <v>-40176.476920000001</v>
       </c>
       <c r="X8" s="11">
         <f t="shared" si="1"/>
-        <v>13643.523079400351</v>
+        <v>13643.523079999999</v>
       </c>
       <c r="Y8" s="11">
         <f t="shared" si="10"/>
-        <v>-42828.476920599649</v>
+        <v>-42828.476920000001</v>
       </c>
       <c r="Z8" s="11">
         <f t="shared" si="11"/>
-        <v>-41172.476920599649</v>
+        <v>-41172.476920000001</v>
       </c>
       <c r="AA8" s="11">
         <f t="shared" si="12"/>
-        <v>7247.523079400351</v>
+        <v>7247.523079999999</v>
       </c>
       <c r="AB8" s="11">
         <f t="shared" si="13"/>
@@ -17680,27 +17681,27 @@
       </c>
       <c r="AC8" s="12">
         <f t="shared" si="14"/>
-        <v>-23694.626897182559</v>
+        <v>-23694.626896844075</v>
       </c>
       <c r="AD8" s="12">
         <f t="shared" si="15"/>
-        <v>-22678.573823085761</v>
+        <v>-22678.573822747276</v>
       </c>
       <c r="AE8" s="12">
         <f t="shared" si="16"/>
-        <v>7701.4130924085284</v>
+        <v>7701.4130927470142</v>
       </c>
       <c r="AF8" s="12">
         <f t="shared" si="17"/>
-        <v>-24175.558685588378</v>
+        <v>-24175.558685249893</v>
       </c>
       <c r="AG8" s="12">
         <f t="shared" si="18"/>
-        <v>-23240.789857419324</v>
+        <v>-23240.789857080836</v>
       </c>
       <c r="AH8" s="12">
         <f t="shared" si="19"/>
-        <v>4091.0378357845698</v>
+        <v>4091.0378361230555</v>
       </c>
     </row>
     <row r="9" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -17759,31 +17760,31 @@
       </c>
       <c r="U9" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V9" s="11">
         <f t="shared" si="8"/>
-        <v>-39000.476920599649</v>
+        <v>-39000.476920000001</v>
       </c>
       <c r="W9" s="11">
         <f t="shared" si="9"/>
-        <v>-36072.476920599649</v>
+        <v>-36072.476920000001</v>
       </c>
       <c r="X9" s="11">
         <f t="shared" si="1"/>
-        <v>64451.523079400351</v>
+        <v>64451.523079999999</v>
       </c>
       <c r="Y9" s="11">
         <f t="shared" si="10"/>
-        <v>-40128.476920599649</v>
+        <v>-40128.476920000001</v>
       </c>
       <c r="Z9" s="11">
         <f t="shared" si="11"/>
-        <v>-37512.476920599649</v>
+        <v>-37512.476920000001</v>
       </c>
       <c r="AA9" s="11">
         <f t="shared" si="12"/>
-        <v>52979.523079400351</v>
+        <v>52979.523079999999</v>
       </c>
       <c r="AB9" s="11">
         <f t="shared" si="13"/>
@@ -17791,27 +17792,27 @@
       </c>
       <c r="AC9" s="12">
         <f t="shared" si="14"/>
-        <v>-20013.411346675013</v>
+        <v>-20013.411346367298</v>
       </c>
       <c r="AD9" s="12">
         <f t="shared" si="15"/>
-        <v>-18510.884376495505</v>
+        <v>-18510.884376187791</v>
       </c>
       <c r="AE9" s="12">
         <f t="shared" si="16"/>
-        <v>33073.822300528031</v>
+        <v>33073.822300835745</v>
       </c>
       <c r="AF9" s="12">
         <f t="shared" si="17"/>
-        <v>-20592.253704039249</v>
+        <v>-20592.253703731534</v>
       </c>
       <c r="AG9" s="12">
         <f t="shared" si="18"/>
-        <v>-19249.83206674772</v>
+        <v>-19249.832066440009</v>
       </c>
       <c r="AH9" s="12">
         <f t="shared" si="19"/>
-        <v>27186.872368185366</v>
+        <v>27186.872368493081</v>
       </c>
     </row>
     <row r="10" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -17870,31 +17871,31 @@
       </c>
       <c r="U10" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V10" s="11">
         <f t="shared" si="8"/>
-        <v>-34944.476920599649</v>
+        <v>-34944.476920000001</v>
       </c>
       <c r="W10" s="11">
         <f t="shared" si="9"/>
-        <v>-30312.476920599649</v>
+        <v>-30312.476920000001</v>
       </c>
       <c r="X10" s="11">
         <f t="shared" si="1"/>
-        <v>138143.52307940036</v>
+        <v>138143.52308000001</v>
       </c>
       <c r="Y10" s="11">
         <f t="shared" si="10"/>
-        <v>-36480.476920599649</v>
+        <v>-36480.476920000001</v>
       </c>
       <c r="Z10" s="11">
         <f t="shared" si="11"/>
-        <v>-32328.476920599649</v>
+        <v>-32328.476920000001</v>
       </c>
       <c r="AA10" s="11">
         <f t="shared" si="12"/>
-        <v>119291.52307940036</v>
+        <v>119291.52308</v>
       </c>
       <c r="AB10" s="11">
         <f t="shared" si="13"/>
@@ -17902,27 +17903,27 @@
       </c>
       <c r="AC10" s="12">
         <f t="shared" si="14"/>
-        <v>-16301.856381028425</v>
+        <v>-16301.856380748684</v>
       </c>
       <c r="AD10" s="12">
         <f t="shared" si="15"/>
-        <v>-14140.994195896941</v>
+        <v>-14140.994195617201</v>
       </c>
       <c r="AE10" s="12">
         <f t="shared" si="16"/>
-        <v>64444.973044713872</v>
+        <v>64444.973044993611</v>
       </c>
       <c r="AF10" s="12">
         <f t="shared" si="17"/>
-        <v>-17018.411717030576</v>
+        <v>-17018.411716750834</v>
       </c>
       <c r="AG10" s="12">
         <f t="shared" si="18"/>
-        <v>-15081.473074399764</v>
+        <v>-15081.473074120024</v>
       </c>
       <c r="AH10" s="12">
         <f t="shared" si="19"/>
-        <v>55650.375912999982</v>
+        <v>55650.375913279713</v>
       </c>
     </row>
     <row r="11" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -17981,31 +17982,31 @@
       </c>
       <c r="U11" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V11" s="11">
         <f t="shared" si="8"/>
-        <v>-29472.476920599649</v>
+        <v>-29472.476920000001</v>
       </c>
       <c r="W11" s="11">
         <f t="shared" si="9"/>
-        <v>-22344.476920599649</v>
+        <v>-22344.476920000001</v>
       </c>
       <c r="X11" s="11">
         <f t="shared" si="1"/>
-        <v>216887.52307940036</v>
+        <v>216887.52308000001</v>
       </c>
       <c r="Y11" s="11">
         <f t="shared" si="10"/>
-        <v>-31560.476920599649</v>
+        <v>-31560.476920000001</v>
       </c>
       <c r="Z11" s="11">
         <f t="shared" si="11"/>
-        <v>-25152.476920599649</v>
+        <v>-25152.476920000001</v>
       </c>
       <c r="AA11" s="11">
         <f t="shared" si="12"/>
-        <v>190175.52307940036</v>
+        <v>190175.52308000001</v>
       </c>
       <c r="AB11" s="11">
         <f t="shared" si="13"/>
@@ -18013,27 +18014,27 @@
       </c>
       <c r="AC11" s="12">
         <f t="shared" si="14"/>
-        <v>-12499.207269564333</v>
+        <v>-12499.207269310022</v>
       </c>
       <c r="AD11" s="12">
         <f t="shared" si="15"/>
-        <v>-9476.2394458052604</v>
+        <v>-9476.2394455509511</v>
       </c>
       <c r="AE11" s="12">
         <f t="shared" si="16"/>
-        <v>91981.481992680987</v>
+        <v>91981.481992935311</v>
       </c>
       <c r="AF11" s="12">
         <f t="shared" si="17"/>
-        <v>-13384.72309672608</v>
+        <v>-13384.723096471771</v>
       </c>
       <c r="AG11" s="12">
         <f t="shared" si="18"/>
-        <v>-10667.105558195199</v>
+        <v>-10667.105557940889</v>
       </c>
       <c r="AH11" s="12">
         <f t="shared" si="19"/>
-        <v>80652.986410715181</v>
+        <v>80652.98641096949</v>
       </c>
     </row>
     <row r="12" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -18093,31 +18094,31 @@
       </c>
       <c r="U12" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V12" s="11">
         <f t="shared" si="8"/>
-        <v>-22128.476920599649</v>
+        <v>-22128.476920000001</v>
       </c>
       <c r="W12" s="11">
         <f t="shared" si="9"/>
-        <v>-11508.476920599649</v>
+        <v>-11508.476920000001</v>
       </c>
       <c r="X12" s="11">
         <f t="shared" si="1"/>
-        <v>264167.52307940036</v>
+        <v>264167.52308000001</v>
       </c>
       <c r="Y12" s="11">
         <f t="shared" si="10"/>
-        <v>-24960.476920599649</v>
+        <v>-24960.476920000001</v>
       </c>
       <c r="Z12" s="11">
         <f t="shared" si="11"/>
-        <v>-15384.476920599649</v>
+        <v>-15384.476920000001</v>
       </c>
       <c r="AA12" s="11">
         <f t="shared" si="12"/>
-        <v>232727.52307940036</v>
+        <v>232727.52308000001</v>
       </c>
       <c r="AB12" s="11">
         <f t="shared" si="13"/>
@@ -18125,27 +18126,27 @@
       </c>
       <c r="AC12" s="12">
         <f t="shared" si="14"/>
-        <v>-8531.4857820334582</v>
+        <v>-8531.4857818022683</v>
       </c>
       <c r="AD12" s="12">
         <f t="shared" si="15"/>
-        <v>-4437.0160482918336</v>
+        <v>-4437.0160480606437</v>
       </c>
       <c r="AE12" s="12">
         <f t="shared" si="16"/>
-        <v>101848.01580848369</v>
+        <v>101848.01580871489</v>
       </c>
       <c r="AF12" s="12">
         <f t="shared" si="17"/>
-        <v>-9623.3443776978911</v>
+        <v>-9623.3443774667012</v>
       </c>
       <c r="AG12" s="12">
         <f t="shared" si="18"/>
-        <v>-5931.3818381206975</v>
+        <v>-5931.3818378895076</v>
       </c>
       <c r="AH12" s="12">
         <f t="shared" si="19"/>
-        <v>89726.534788819219</v>
+        <v>89726.534789050405</v>
       </c>
     </row>
     <row r="13" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -18204,31 +18205,31 @@
       </c>
       <c r="U13" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V13" s="11">
         <f t="shared" si="8"/>
-        <v>-12480.476920599649</v>
+        <v>-12480.476920000001</v>
       </c>
       <c r="W13" s="11">
         <f t="shared" si="9"/>
-        <v>3083.523079400351</v>
+        <v>3083.523079999999</v>
       </c>
       <c r="X13" s="11">
         <f t="shared" si="1"/>
-        <v>274307.52307940036</v>
+        <v>274307.52308000001</v>
       </c>
       <c r="Y13" s="11">
         <f t="shared" si="10"/>
-        <v>-16272.476920599649</v>
+        <v>-16272.476920000001</v>
       </c>
       <c r="Z13" s="11">
         <f t="shared" si="11"/>
-        <v>-2268.476920599649</v>
+        <v>-2268.476920000001</v>
       </c>
       <c r="AA13" s="11">
         <f t="shared" si="12"/>
-        <v>241859.52307940036</v>
+        <v>241859.52308000001</v>
       </c>
       <c r="AB13" s="11">
         <f t="shared" si="13"/>
@@ -18236,27 +18237,27 @@
       </c>
       <c r="AC13" s="12">
         <f t="shared" si="14"/>
-        <v>-4374.3310232884887</v>
+        <v>-4374.3310230783154</v>
       </c>
       <c r="AD13" s="12">
         <f t="shared" si="15"/>
-        <v>1080.7560282398995</v>
+        <v>1080.7560284500726</v>
       </c>
       <c r="AE13" s="12">
         <f t="shared" si="16"/>
-        <v>96143.113421181028</v>
+        <v>96143.113421391201</v>
       </c>
       <c r="AF13" s="12">
         <f t="shared" si="17"/>
-        <v>-5703.4038901219283</v>
+        <v>-5703.403889911755</v>
       </c>
       <c r="AG13" s="12">
         <f t="shared" si="18"/>
-        <v>-795.08732178451146</v>
+        <v>-795.08732157433849</v>
       </c>
       <c r="AH13" s="12">
         <f t="shared" si="19"/>
-        <v>84770.287370808801</v>
+        <v>84770.287371018989</v>
       </c>
     </row>
     <row r="14" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -18315,31 +18316,31 @@
       </c>
       <c r="U14" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V14" s="11">
         <f t="shared" si="8"/>
-        <v>143.52307940035098</v>
+        <v>143.52307999999903</v>
       </c>
       <c r="W14" s="11">
         <f t="shared" si="9"/>
-        <v>22127.523079400351</v>
+        <v>22127.523079999999</v>
       </c>
       <c r="X14" s="11">
         <f t="shared" si="1"/>
-        <v>274763.52307940036</v>
+        <v>274763.52308000001</v>
       </c>
       <c r="Y14" s="11">
         <f t="shared" si="10"/>
-        <v>-4896.476920599649</v>
+        <v>-4896.476920000001</v>
       </c>
       <c r="Z14" s="11">
         <f t="shared" si="11"/>
-        <v>14891.523079400351</v>
+        <v>14891.523079999999</v>
       </c>
       <c r="AA14" s="11">
         <f t="shared" si="12"/>
-        <v>242243.52307940036</v>
+        <v>242243.52308000001</v>
       </c>
       <c r="AB14" s="11">
         <f t="shared" si="13"/>
@@ -18347,27 +18348,27 @@
       </c>
       <c r="AC14" s="12">
         <f t="shared" si="14"/>
-        <v>45.730876149642263</v>
+        <v>45.730876340708612</v>
       </c>
       <c r="AD14" s="12">
         <f t="shared" si="15"/>
-        <v>7050.5107726941205</v>
+        <v>7050.5107728851872</v>
       </c>
       <c r="AE14" s="12">
         <f t="shared" si="16"/>
-        <v>87548.126035767767</v>
+        <v>87548.126035958834</v>
       </c>
       <c r="AF14" s="12">
         <f t="shared" si="17"/>
-        <v>-1560.1684451105548</v>
+        <v>-1560.1684449194884</v>
       </c>
       <c r="AG14" s="12">
         <f t="shared" si="18"/>
-        <v>4744.8981757419806</v>
+        <v>4744.8981759330472</v>
       </c>
       <c r="AH14" s="12">
         <f t="shared" si="19"/>
-        <v>77186.251843826962</v>
+        <v>77186.251844018043</v>
       </c>
     </row>
     <row r="15" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -18426,31 +18427,31 @@
       </c>
       <c r="U15" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V15" s="11">
         <f t="shared" si="8"/>
-        <v>16223.523079400351</v>
+        <v>16223.523079999999</v>
       </c>
       <c r="W15" s="11">
         <f t="shared" si="9"/>
-        <v>46247.523079400351</v>
+        <v>46247.523079999999</v>
       </c>
       <c r="X15" s="11">
         <f t="shared" si="1"/>
-        <v>274847.52307940036</v>
+        <v>274847.52308000001</v>
       </c>
       <c r="Y15" s="11">
         <f t="shared" si="10"/>
-        <v>9587.523079400351</v>
+        <v>9587.523079999999</v>
       </c>
       <c r="Z15" s="11">
         <f t="shared" si="11"/>
-        <v>36587.523079400351</v>
+        <v>36587.523079999999</v>
       </c>
       <c r="AA15" s="11">
         <f t="shared" si="12"/>
-        <v>242327.52307940036</v>
+        <v>242327.52308000001</v>
       </c>
       <c r="AB15" s="11">
         <f t="shared" si="13"/>
@@ -18458,27 +18459,27 @@
       </c>
       <c r="AC15" s="12">
         <f t="shared" si="14"/>
-        <v>4699.3767499383421</v>
+        <v>4699.3767501120383</v>
       </c>
       <c r="AD15" s="12">
         <f t="shared" si="15"/>
-        <v>13396.260087152656</v>
+        <v>13396.260087326353</v>
       </c>
       <c r="AE15" s="12">
         <f t="shared" si="16"/>
-        <v>79613.537294959489</v>
+        <v>79613.537295133181</v>
       </c>
       <c r="AF15" s="12">
         <f t="shared" si="17"/>
-        <v>2777.1639260056818</v>
+        <v>2777.1639261793784</v>
       </c>
       <c r="AG15" s="12">
         <f t="shared" si="18"/>
-        <v>10598.102178896252</v>
+        <v>10598.102179069949</v>
       </c>
       <c r="AH15" s="12">
         <f t="shared" si="19"/>
-        <v>70193.6516659224</v>
+        <v>70193.651666096106</v>
       </c>
     </row>
     <row r="16" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -18537,31 +18538,31 @@
       </c>
       <c r="U16" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V16" s="11">
         <f t="shared" si="8"/>
-        <v>36215.523079400351</v>
+        <v>36215.523079999999</v>
       </c>
       <c r="W16" s="11">
         <f t="shared" si="9"/>
-        <v>75275.523079400358</v>
+        <v>75275.523079999999</v>
       </c>
       <c r="X16" s="11">
         <f t="shared" si="1"/>
-        <v>274883.52307940036</v>
+        <v>274883.52308000001</v>
       </c>
       <c r="Y16" s="11">
         <f t="shared" si="10"/>
-        <v>27551.523079400351</v>
+        <v>27551.523079999999</v>
       </c>
       <c r="Z16" s="11">
         <f t="shared" si="11"/>
-        <v>62699.523079400351</v>
+        <v>62699.523079999999</v>
       </c>
       <c r="AA16" s="11">
         <f t="shared" si="12"/>
-        <v>242351.52307940036</v>
+        <v>242351.52308000001</v>
       </c>
       <c r="AB16" s="11">
         <f t="shared" si="13"/>
@@ -18569,27 +18570,27 @@
       </c>
       <c r="AC16" s="12">
         <f t="shared" si="14"/>
-        <v>9536.6791178492731</v>
+        <v>9536.6791180071796</v>
       </c>
       <c r="AD16" s="12">
         <f t="shared" si="15"/>
-        <v>19822.397911044751</v>
+        <v>19822.397911202654</v>
       </c>
       <c r="AE16" s="12">
         <f t="shared" si="16"/>
-        <v>72385.422920572717</v>
+        <v>72385.42292073062</v>
       </c>
       <c r="AF16" s="12">
         <f t="shared" si="17"/>
-        <v>7255.1771305413986</v>
+        <v>7255.1771306993051</v>
       </c>
       <c r="AG16" s="12">
         <f t="shared" si="18"/>
-        <v>16510.74405689149</v>
+        <v>16510.744057049396</v>
       </c>
       <c r="AH16" s="12">
         <f t="shared" si="19"/>
-        <v>63818.730555487324</v>
+        <v>63818.730555645234</v>
       </c>
     </row>
     <row r="17" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -18648,31 +18649,31 @@
       </c>
       <c r="U17" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V17" s="11">
         <f t="shared" si="8"/>
-        <v>60251.523079400351</v>
+        <v>60251.523079999999</v>
       </c>
       <c r="W17" s="11">
         <f t="shared" si="9"/>
-        <v>108299.52307940036</v>
+        <v>108299.52308</v>
       </c>
       <c r="X17" s="11">
         <f t="shared" si="1"/>
-        <v>274907.52307940036</v>
+        <v>274907.52308000001</v>
       </c>
       <c r="Y17" s="11">
         <f t="shared" si="10"/>
-        <v>49187.523079400351</v>
+        <v>49187.523079999999</v>
       </c>
       <c r="Z17" s="11">
         <f t="shared" si="11"/>
-        <v>92459.523079400358</v>
+        <v>92459.523079999999</v>
       </c>
       <c r="AA17" s="11">
         <f t="shared" si="12"/>
-        <v>242375.52307940036</v>
+        <v>242375.52308000001</v>
       </c>
       <c r="AB17" s="11">
         <f t="shared" si="13"/>
@@ -18680,27 +18681,27 @@
       </c>
       <c r="AC17" s="12">
         <f t="shared" si="14"/>
-        <v>14423.735587591096</v>
+        <v>14423.735587734647</v>
       </c>
       <c r="AD17" s="12">
         <f t="shared" si="15"/>
-        <v>25926.044775680661</v>
+        <v>25926.044775824208</v>
       </c>
       <c r="AE17" s="12">
         <f t="shared" si="16"/>
-        <v>65810.675336978238</v>
+        <v>65810.675337121793</v>
       </c>
       <c r="AF17" s="12">
         <f t="shared" si="17"/>
-        <v>11775.101953370673</v>
+        <v>11775.101953514224</v>
       </c>
       <c r="AG17" s="12">
         <f t="shared" si="18"/>
-        <v>22134.074713673112</v>
+        <v>22134.074713816663</v>
       </c>
       <c r="AH17" s="12">
         <f t="shared" si="19"/>
-        <v>58022.773186900609</v>
+        <v>58022.773187044164</v>
       </c>
     </row>
     <row r="18" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -18759,31 +18760,31 @@
       </c>
       <c r="U18" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V18" s="11">
         <f t="shared" si="8"/>
-        <v>87899.523079400358</v>
+        <v>87899.523079999999</v>
       </c>
       <c r="W18" s="11">
         <f t="shared" si="9"/>
-        <v>143159.52307940036</v>
+        <v>143159.52308000001</v>
       </c>
       <c r="X18" s="11">
         <f t="shared" si="1"/>
-        <v>274919.52307940036</v>
+        <v>274919.52308000001</v>
       </c>
       <c r="Y18" s="11">
         <f t="shared" si="10"/>
-        <v>74075.523079400358</v>
+        <v>74075.523079999999</v>
       </c>
       <c r="Z18" s="11">
         <f t="shared" si="11"/>
-        <v>123827.52307940036</v>
+        <v>123827.52308</v>
       </c>
       <c r="AA18" s="11">
         <f t="shared" si="12"/>
-        <v>242387.52307940036</v>
+        <v>242387.52308000001</v>
       </c>
       <c r="AB18" s="11">
         <f t="shared" si="13"/>
@@ -18791,27 +18792,27 @@
       </c>
       <c r="AC18" s="12">
         <f t="shared" si="14"/>
-        <v>19129.497244136117</v>
+        <v>19129.497244266615</v>
       </c>
       <c r="AD18" s="12">
         <f t="shared" si="15"/>
-        <v>31155.683287899723</v>
+        <v>31155.683288030225</v>
       </c>
       <c r="AE18" s="12">
         <f t="shared" si="16"/>
-        <v>59830.498219609697</v>
+        <v>59830.498219740199</v>
       </c>
       <c r="AF18" s="12">
         <f t="shared" si="17"/>
-        <v>16120.992070973101</v>
+        <v>16120.992071103601</v>
       </c>
       <c r="AG18" s="12">
         <f t="shared" si="18"/>
-        <v>26948.476834804573</v>
+        <v>26948.476834935071</v>
       </c>
       <c r="AH18" s="12">
         <f t="shared" si="19"/>
-        <v>52750.587174084583</v>
+        <v>52750.587174215085</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -18861,31 +18862,31 @@
       </c>
       <c r="U19" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V19" s="11">
         <f t="shared" si="8"/>
-        <v>117983.52307940036</v>
+        <v>117983.52308</v>
       </c>
       <c r="W19" s="11">
         <f t="shared" si="9"/>
-        <v>176759.52307940036</v>
+        <v>176759.52308000001</v>
       </c>
       <c r="X19" s="11">
         <f t="shared" si="1"/>
-        <v>274931.52307940036</v>
+        <v>274931.52308000001</v>
       </c>
       <c r="Y19" s="11">
         <f t="shared" si="10"/>
-        <v>101171.52307940036</v>
+        <v>101171.52308</v>
       </c>
       <c r="Z19" s="11">
         <f t="shared" si="11"/>
-        <v>154031.52307940036</v>
+        <v>154031.52308000001</v>
       </c>
       <c r="AA19" s="11">
         <f t="shared" si="12"/>
-        <v>242399.52307940036</v>
+        <v>242399.52308000001</v>
       </c>
       <c r="AB19" s="11">
         <f t="shared" si="13"/>
@@ -18893,27 +18894,27 @@
       </c>
       <c r="AC19" s="12">
         <f t="shared" si="14"/>
-        <v>23342.411059315404</v>
+        <v>23342.411059434038</v>
       </c>
       <c r="AD19" s="12">
         <f t="shared" si="15"/>
-        <v>34970.92931858974</v>
+        <v>34970.929318708375</v>
       </c>
       <c r="AE19" s="12">
         <f t="shared" si="16"/>
-        <v>54393.736153853795</v>
+        <v>54393.73615397243</v>
       </c>
       <c r="AF19" s="12">
         <f t="shared" si="17"/>
-        <v>20016.246485766333</v>
+        <v>20016.246485884967</v>
       </c>
       <c r="AG19" s="12">
         <f t="shared" si="18"/>
-        <v>30474.31568382747</v>
+        <v>30474.315683946108</v>
       </c>
       <c r="AH19" s="12">
         <f t="shared" si="19"/>
-        <v>47957.453385194603</v>
+        <v>47957.453385313238</v>
       </c>
     </row>
     <row r="20" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -18963,31 +18964,31 @@
       </c>
       <c r="U20" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V20" s="11">
         <f t="shared" si="8"/>
-        <v>148739.52307940036</v>
+        <v>148739.52308000001</v>
       </c>
       <c r="W20" s="11">
         <f t="shared" si="9"/>
-        <v>206135.52307940036</v>
+        <v>206135.52308000001</v>
       </c>
       <c r="X20" s="11">
         <f t="shared" si="1"/>
-        <v>274931.52307940036</v>
+        <v>274931.52308000001</v>
       </c>
       <c r="Y20" s="11">
         <f t="shared" si="10"/>
-        <v>128843.52307940036</v>
+        <v>128843.52308</v>
       </c>
       <c r="Z20" s="11">
         <f t="shared" si="11"/>
-        <v>180479.52307940036</v>
+        <v>180479.52308000001</v>
       </c>
       <c r="AA20" s="11">
         <f t="shared" si="12"/>
-        <v>242399.52307940036</v>
+        <v>242399.52308000001</v>
       </c>
       <c r="AB20" s="11">
         <f t="shared" si="13"/>
@@ -18995,27 +18996,27 @@
       </c>
       <c r="AC20" s="12">
         <f t="shared" si="14"/>
-        <v>26752.110632734504</v>
+        <v>26752.110632842356</v>
       </c>
       <c r="AD20" s="12">
         <f t="shared" si="15"/>
-        <v>37075.285738363731</v>
+        <v>37075.285738471583</v>
       </c>
       <c r="AE20" s="12">
         <f t="shared" si="16"/>
-        <v>49448.851048957993</v>
+        <v>49448.851049065845</v>
       </c>
       <c r="AF20" s="12">
         <f t="shared" si="17"/>
-        <v>23173.640148700786</v>
+        <v>23173.640148808638</v>
       </c>
       <c r="AG20" s="12">
         <f t="shared" si="18"/>
-        <v>32460.828624452944</v>
+        <v>32460.828624560796</v>
       </c>
       <c r="AH20" s="12">
         <f t="shared" si="19"/>
-        <v>43597.68489563145</v>
+        <v>43597.684895739309</v>
       </c>
     </row>
     <row r="21" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -19065,31 +19066,31 @@
       </c>
       <c r="U21" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V21" s="11">
         <f t="shared" si="8"/>
-        <v>177995.52307940036</v>
+        <v>177995.52308000001</v>
       </c>
       <c r="W21" s="11">
         <f t="shared" si="9"/>
-        <v>229391.52307940036</v>
+        <v>229391.52308000001</v>
       </c>
       <c r="X21" s="11">
         <f t="shared" si="1"/>
-        <v>274931.52307940036</v>
+        <v>274931.52308000001</v>
       </c>
       <c r="Y21" s="11">
         <f t="shared" si="10"/>
-        <v>155171.52307940036</v>
+        <v>155171.52308000001</v>
       </c>
       <c r="Z21" s="11">
         <f t="shared" si="11"/>
-        <v>201443.52307940036</v>
+        <v>201443.52308000001</v>
       </c>
       <c r="AA21" s="11">
         <f t="shared" si="12"/>
-        <v>242399.52307940036</v>
+        <v>242399.52308000001</v>
       </c>
       <c r="AB21" s="11">
         <f t="shared" si="13"/>
@@ -19097,27 +19098,27 @@
       </c>
       <c r="AC21" s="12">
         <f t="shared" si="14"/>
-        <v>29103.690354834955</v>
+        <v>29103.690354933002</v>
       </c>
       <c r="AD21" s="12">
         <f t="shared" si="15"/>
-        <v>37507.347051356715</v>
+        <v>37507.347051454766</v>
       </c>
       <c r="AE21" s="12">
         <f t="shared" si="16"/>
-        <v>44953.500953598159</v>
+        <v>44953.50095369621</v>
       </c>
       <c r="AF21" s="12">
         <f t="shared" si="17"/>
-        <v>25371.7839722096</v>
+        <v>25371.783972307647</v>
       </c>
       <c r="AG21" s="12">
         <f t="shared" si="18"/>
-        <v>32937.625723736084</v>
+        <v>32937.625723834128</v>
       </c>
       <c r="AH21" s="12">
         <f t="shared" si="19"/>
-        <v>39634.258996028584</v>
+        <v>39634.258996126635</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -19167,31 +19168,31 @@
       </c>
       <c r="U22" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V22" s="11">
         <f t="shared" si="8"/>
-        <v>203783.52307940036</v>
+        <v>203783.52308000001</v>
       </c>
       <c r="W22" s="11">
         <f t="shared" si="9"/>
-        <v>246191.52307940036</v>
+        <v>246191.52308000001</v>
       </c>
       <c r="X22" s="11">
         <f t="shared" si="1"/>
-        <v>274931.52307940036</v>
+        <v>274931.52308000001</v>
       </c>
       <c r="Y22" s="11">
         <f t="shared" si="10"/>
-        <v>178391.52307940036</v>
+        <v>178391.52308000001</v>
       </c>
       <c r="Z22" s="11">
         <f t="shared" si="11"/>
-        <v>216539.52307940036</v>
+        <v>216539.52308000001</v>
       </c>
       <c r="AA22" s="11">
         <f t="shared" si="12"/>
-        <v>242399.52307940036</v>
+        <v>242399.52308000001</v>
       </c>
       <c r="AB22" s="11">
         <f t="shared" si="13"/>
@@ -19199,27 +19200,27 @@
       </c>
       <c r="AC22" s="12">
         <f t="shared" si="14"/>
-        <v>30291.122202063849</v>
+        <v>30291.122202152983</v>
       </c>
       <c r="AD22" s="12">
         <f t="shared" si="15"/>
-        <v>36594.801179311726</v>
+        <v>36594.801179400856</v>
       </c>
       <c r="AE22" s="12">
         <f t="shared" si="16"/>
-        <v>40866.819048725607</v>
+        <v>40866.819048814745</v>
       </c>
       <c r="AF22" s="12">
         <f t="shared" si="17"/>
-        <v>26516.763199274796</v>
+        <v>26516.76319936393</v>
       </c>
       <c r="AG22" s="12">
         <f t="shared" si="18"/>
-        <v>32187.220321139823</v>
+        <v>32187.220321228957</v>
       </c>
       <c r="AH22" s="12">
         <f t="shared" si="19"/>
-        <v>36031.144541844173</v>
+        <v>36031.14454193331</v>
       </c>
     </row>
     <row r="25" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -19522,7 +19523,7 @@
         <v>7008</v>
       </c>
     </row>
-    <row r="37" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2026</v>
       </c>
@@ -19551,7 +19552,7 @@
         <v>11517</v>
       </c>
     </row>
-    <row r="38" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2027</v>
       </c>
@@ -19580,7 +19581,7 @@
         <v>16335</v>
       </c>
     </row>
-    <row r="39" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2028</v>
       </c>
@@ -19609,7 +19610,7 @@
         <v>19227</v>
       </c>
     </row>
-    <row r="40" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2029</v>
       </c>
@@ -19638,7 +19639,7 @@
         <v>19847</v>
       </c>
     </row>
-    <row r="41" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2030</v>
       </c>
@@ -19667,7 +19668,7 @@
         <v>19876</v>
       </c>
     </row>
-    <row r="42" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2031</v>
       </c>
@@ -19696,7 +19697,7 @@
         <v>19880</v>
       </c>
     </row>
-    <row r="43" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2032</v>
       </c>
@@ -19725,7 +19726,7 @@
         <v>19882</v>
       </c>
     </row>
-    <row r="44" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2033</v>
       </c>
@@ -19754,7 +19755,7 @@
         <v>19884</v>
       </c>
     </row>
-    <row r="45" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2034</v>
       </c>
@@ -19783,7 +19784,7 @@
         <v>19885</v>
       </c>
     </row>
-    <row r="46" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2035</v>
       </c>
